--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_7_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_7_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>517046.700935485</v>
+        <v>516302.0642194296</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1180229.024097046</v>
+        <v>1180229.024097045</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>6.84140014930867</v>
+      </c>
+      <c r="F2" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="F2" t="n">
-        <v>13.47865120333094</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E3" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
+        <v>10.75721046822444</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.75721046822443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>15.26809192273229</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>3.487951988786145</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -978,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="F6" t="n">
-        <v>15.30273751513505</v>
+        <v>12.73205987707309</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>12.73205987707309</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="G7" t="n">
         <v>10.75721046822444</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>15.30273751513505</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12.92549025883184</v>
+      </c>
+      <c r="G8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F8" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="G8" t="n">
-        <v>22.91618947337665</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F9" t="n">
-        <v>34.11888750173132</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G9" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="H9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,31 +1330,31 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>9.977552361264268</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X10" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>239.1618804710389</v>
       </c>
       <c r="D11" t="n">
-        <v>228.5720303207143</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>57.25851207756563</v>
+        <v>255.8193587722931</v>
       </c>
       <c r="F11" t="n">
-        <v>280.7650344417428</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>288.7112271912927</v>
+        <v>288.7112271912926</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>192.934775848398</v>
       </c>
       <c r="I11" t="n">
-        <v>65.84043965254321</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.95968677975286</v>
+        <v>71.95968677975284</v>
       </c>
       <c r="T11" t="n">
-        <v>94.88145378715524</v>
+        <v>94.88145378715522</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>125.1962016859579</v>
       </c>
       <c r="V11" t="n">
-        <v>201.6412471701663</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>260.1269273560849</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.42217234989872</v>
+        <v>40.4221723498987</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>46.5974876883471</v>
       </c>
       <c r="D12" t="n">
-        <v>21.33405426467013</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>31.53406915543232</v>
+        <v>31.53406915543231</v>
       </c>
       <c r="F12" t="n">
-        <v>18.95820109341525</v>
+        <v>18.95820109341524</v>
       </c>
       <c r="G12" t="n">
-        <v>10.97541622042124</v>
+        <v>137.0864275203899</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.7524995282011</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>84.1957245747009</v>
       </c>
       <c r="S12" t="n">
         <v>166.9078437470573</v>
       </c>
       <c r="T12" t="n">
-        <v>196.2975590928879</v>
+        <v>199.1284770204695</v>
       </c>
       <c r="U12" t="n">
-        <v>99.81345698871536</v>
+        <v>99.81345698871534</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>106.6895758494566</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>181.0268524304063</v>
       </c>
       <c r="X12" t="n">
-        <v>79.66197390350885</v>
+        <v>79.66197390350884</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>79.57168447733572</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.72096888196867</v>
+        <v>53.72096888196866</v>
       </c>
       <c r="C13" t="n">
-        <v>41.13580979865921</v>
+        <v>41.1358097986592</v>
       </c>
       <c r="D13" t="n">
-        <v>22.50446171824373</v>
+        <v>22.50446171824372</v>
       </c>
       <c r="E13" t="n">
-        <v>20.32295134660055</v>
+        <v>20.32295134660053</v>
       </c>
       <c r="F13" t="n">
-        <v>19.31003672296262</v>
+        <v>19.31003672296261</v>
       </c>
       <c r="G13" t="n">
-        <v>41.66443273815003</v>
+        <v>41.66443273815002</v>
       </c>
       <c r="H13" t="n">
-        <v>34.19985626844711</v>
+        <v>34.19985626844709</v>
       </c>
       <c r="I13" t="n">
-        <v>22.85772872106176</v>
+        <v>22.85772872106175</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.4911283099085</v>
+        <v>41.49112830990848</v>
       </c>
       <c r="S13" t="n">
-        <v>94.14939392707653</v>
+        <v>94.14939392707652</v>
       </c>
       <c r="T13" t="n">
         <v>100.9136544868597</v>
@@ -1588,13 +1588,13 @@
         <v>126.0266320238594</v>
       </c>
       <c r="W13" t="n">
-        <v>160.4119870366224</v>
+        <v>160.4119870366223</v>
       </c>
       <c r="X13" t="n">
-        <v>99.59864408906853</v>
+        <v>99.59864408906851</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.47364205212617</v>
+        <v>92.47364205212615</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>228.5720303207144</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>45.34068403535008</v>
+        <v>255.8193587722932</v>
       </c>
       <c r="F14" t="n">
         <v>280.7650344417428</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>141.8182790848316</v>
       </c>
       <c r="H14" t="n">
         <v>208.4428801875512</v>
       </c>
       <c r="I14" t="n">
-        <v>65.84043965254327</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>94.88145378715529</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>125.196201685958</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>223.1299574174444</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>260.126927356085</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40.42217234989877</v>
+        <v>40.42217234989873</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>21.33405426467019</v>
+        <v>21.33405426467014</v>
       </c>
       <c r="E15" t="n">
-        <v>31.53406915543238</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>18.95820109341531</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>10.9754162204213</v>
+        <v>10.97541622042126</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.54508155254206</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>84.1957245747009</v>
       </c>
       <c r="S15" t="n">
-        <v>40.79683244708872</v>
+        <v>40.79683244708868</v>
       </c>
       <c r="T15" t="n">
-        <v>73.01746572050089</v>
+        <v>199.1284770204695</v>
       </c>
       <c r="U15" t="n">
-        <v>223.093550361102</v>
+        <v>99.81345698871537</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>106.6895758494567</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>125.583971860951</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>164.3122724486228</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>79.57168447733575</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.72096888196873</v>
+        <v>53.72096888196869</v>
       </c>
       <c r="C16" t="n">
-        <v>41.13580979865927</v>
+        <v>41.13580979865922</v>
       </c>
       <c r="D16" t="n">
-        <v>22.50446171824379</v>
+        <v>22.50446171824375</v>
       </c>
       <c r="E16" t="n">
-        <v>20.3229513466006</v>
+        <v>20.32295134660056</v>
       </c>
       <c r="F16" t="n">
-        <v>19.31003672296268</v>
+        <v>19.31003672296264</v>
       </c>
       <c r="G16" t="n">
-        <v>41.66443273815009</v>
+        <v>41.66443273815005</v>
       </c>
       <c r="H16" t="n">
-        <v>34.19985626844716</v>
+        <v>34.19985626844712</v>
       </c>
       <c r="I16" t="n">
-        <v>22.85772872106182</v>
+        <v>22.85772872106178</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.49112830990855</v>
+        <v>41.4911283099085</v>
       </c>
       <c r="S16" t="n">
-        <v>94.14939392707659</v>
+        <v>94.14939392707655</v>
       </c>
       <c r="T16" t="n">
-        <v>100.9136544868598</v>
+        <v>100.9136544868597</v>
       </c>
       <c r="U16" t="n">
-        <v>160.1962615845038</v>
+        <v>160.1962615845037</v>
       </c>
       <c r="V16" t="n">
         <v>126.0266320238594</v>
@@ -1828,10 +1828,10 @@
         <v>160.4119870366224</v>
       </c>
       <c r="X16" t="n">
-        <v>99.59864408906859</v>
+        <v>99.59864408906854</v>
       </c>
       <c r="Y16" t="n">
-        <v>92.47364205212622</v>
+        <v>92.47364205212618</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>149.7046509581513</v>
+        <v>149.7046509581515</v>
       </c>
       <c r="C17" t="n">
-        <v>132.2437010656783</v>
+        <v>132.2437010656785</v>
       </c>
       <c r="D17" t="n">
-        <v>121.6538509153537</v>
+        <v>121.6538509153539</v>
       </c>
       <c r="E17" t="n">
-        <v>148.9011793669326</v>
+        <v>148.9011793669327</v>
       </c>
       <c r="F17" t="n">
-        <v>173.8468550363822</v>
+        <v>173.8468550363824</v>
       </c>
       <c r="G17" t="n">
-        <v>181.793047785932</v>
+        <v>181.7930477859322</v>
       </c>
       <c r="H17" t="n">
-        <v>101.5247007821905</v>
+        <v>101.5247007821907</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>18.27802228059737</v>
+        <v>18.27802228059751</v>
       </c>
       <c r="V17" t="n">
-        <v>94.72306776480568</v>
+        <v>94.72306776480582</v>
       </c>
       <c r="W17" t="n">
-        <v>116.2117780120837</v>
+        <v>116.2117780120839</v>
       </c>
       <c r="X17" t="n">
-        <v>136.7019099731398</v>
+        <v>136.7019099731399</v>
       </c>
       <c r="Y17" t="n">
-        <v>153.2087479507244</v>
+        <v>153.2087479507245</v>
       </c>
     </row>
     <row r="18">
@@ -1926,16 +1926,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0864275203899</v>
       </c>
       <c r="H18" t="n">
         <v>109.7524995282011</v>
@@ -1977,10 +1977,10 @@
         <v>199.1284770204695</v>
       </c>
       <c r="U18" t="n">
-        <v>225.924468288684</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>71.29532174388197</v>
+        <v>89.31986423749487</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1989,7 +1989,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>159.6106909642921</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>53.27808217914311</v>
+        <v>53.27808217914325</v>
       </c>
       <c r="V19" t="n">
-        <v>19.10845261849877</v>
+        <v>19.10845261849892</v>
       </c>
       <c r="W19" t="n">
-        <v>53.49380763126177</v>
+        <v>53.49380763126192</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>159.6106909642917</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>149.7046509581513</v>
+        <v>149.7046509581515</v>
       </c>
       <c r="C20" t="n">
-        <v>132.2437010656783</v>
+        <v>132.2437010656785</v>
       </c>
       <c r="D20" t="n">
-        <v>121.6538509153537</v>
+        <v>121.6538509153539</v>
       </c>
       <c r="E20" t="n">
-        <v>148.9011793669326</v>
+        <v>148.9011793669327</v>
       </c>
       <c r="F20" t="n">
-        <v>173.8468550363822</v>
+        <v>173.8468550363824</v>
       </c>
       <c r="G20" t="n">
-        <v>181.793047785932</v>
+        <v>181.7930477859322</v>
       </c>
       <c r="H20" t="n">
-        <v>101.5247007821905</v>
+        <v>101.5247007821907</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>18.27802228059737</v>
+        <v>18.2780222805975</v>
       </c>
       <c r="V20" t="n">
-        <v>94.72306776480568</v>
+        <v>94.72306776480582</v>
       </c>
       <c r="W20" t="n">
-        <v>116.2117780120844</v>
+        <v>116.2117780120839</v>
       </c>
       <c r="X20" t="n">
-        <v>136.7019099731398</v>
+        <v>136.7019099731399</v>
       </c>
       <c r="Y20" t="n">
-        <v>153.2087479507244</v>
+        <v>153.2087479507248</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.7524995282011</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.54508155254206</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>64.59731944927886</v>
       </c>
       <c r="V21" t="n">
-        <v>76.23980669866405</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>159.6106909642921</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>159.6106909642916</v>
       </c>
       <c r="U22" t="n">
-        <v>53.27808217914311</v>
+        <v>53.27808217914325</v>
       </c>
       <c r="V22" t="n">
-        <v>19.10845261849877</v>
+        <v>19.10845261849892</v>
       </c>
       <c r="W22" t="n">
-        <v>53.49380763126177</v>
+        <v>53.49380763126192</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>149.7046509581513</v>
+        <v>149.7046509581515</v>
       </c>
       <c r="C23" t="n">
-        <v>132.2437010656783</v>
+        <v>132.2437010656785</v>
       </c>
       <c r="D23" t="n">
-        <v>121.6538509153537</v>
+        <v>121.6538509153539</v>
       </c>
       <c r="E23" t="n">
-        <v>148.9011793669326</v>
+        <v>148.9011793669327</v>
       </c>
       <c r="F23" t="n">
-        <v>173.8468550363822</v>
+        <v>173.8468550363824</v>
       </c>
       <c r="G23" t="n">
-        <v>181.793047785932</v>
+        <v>181.7930477859322</v>
       </c>
       <c r="H23" t="n">
-        <v>101.5247007821905</v>
+        <v>101.5247007821907</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>18.27802228059737</v>
+        <v>18.27802228059751</v>
       </c>
       <c r="V23" t="n">
-        <v>94.72306776480568</v>
+        <v>94.72306776480582</v>
       </c>
       <c r="W23" t="n">
-        <v>116.2117780120838</v>
+        <v>116.2117780120839</v>
       </c>
       <c r="X23" t="n">
-        <v>136.7019099731398</v>
+        <v>136.7019099731399</v>
       </c>
       <c r="Y23" t="n">
-        <v>153.2087479507244</v>
+        <v>153.2087479507245</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>76.23980669866526</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>76.23980669866405</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>91.49679167307644</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2518,25 +2518,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>68.1138992912152</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>159.6106909642921</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>53.27808217914311</v>
+        <v>53.27808217914325</v>
       </c>
       <c r="V25" t="n">
-        <v>19.10845261849877</v>
+        <v>19.10845261849892</v>
       </c>
       <c r="W25" t="n">
-        <v>53.49380763126177</v>
+        <v>53.49380763126192</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.90951483878655</v>
+        <v>46.90951483878656</v>
       </c>
       <c r="T26" t="n">
         <v>69.83128184618894</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>46.24673605431457</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2643,16 +2643,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.7524995282011</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.54508155254206</v>
+        <v>63.91916263763935</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>47.96729377953454</v>
       </c>
       <c r="U27" t="n">
-        <v>74.76328504774906</v>
+        <v>225.924468288684</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>231.5726584225457</v>
+        <v>231.5726584225456</v>
       </c>
       <c r="C29" t="n">
         <v>214.1117085300726</v>
@@ -2798,7 +2798,7 @@
         <v>203.521858379748</v>
       </c>
       <c r="E29" t="n">
-        <v>230.7691868313269</v>
+        <v>230.7691868313268</v>
       </c>
       <c r="F29" t="n">
         <v>255.7148625007765</v>
@@ -2810,7 +2810,7 @@
         <v>183.3927082465848</v>
       </c>
       <c r="I29" t="n">
-        <v>40.79026771157692</v>
+        <v>40.79026771157689</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.90951483878656</v>
+        <v>46.90951483878654</v>
       </c>
       <c r="T29" t="n">
-        <v>69.83128184618894</v>
+        <v>69.83128184618892</v>
       </c>
       <c r="U29" t="n">
-        <v>100.1460297449917</v>
+        <v>100.1460297449916</v>
       </c>
       <c r="V29" t="n">
         <v>176.5910752292</v>
@@ -2858,7 +2858,7 @@
         <v>218.5699174375341</v>
       </c>
       <c r="Y29" t="n">
-        <v>235.0767554151187</v>
+        <v>235.0767554151186</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>85.87826672835995</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.54508155254206</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>84.08588920573557</v>
+        <v>84.1957245747009</v>
       </c>
       <c r="S30" t="n">
-        <v>15.74666050612237</v>
+        <v>166.9078437470573</v>
       </c>
       <c r="T30" t="n">
-        <v>47.96729377953454</v>
+        <v>47.96729377953451</v>
       </c>
       <c r="U30" t="n">
-        <v>74.76328504774906</v>
+        <v>225.924468288684</v>
       </c>
       <c r="V30" t="n">
-        <v>81.63940390849035</v>
+        <v>81.63940390849032</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>100.5337999199847</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>54.61180196254253</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28.67079694100238</v>
+        <v>28.67079694100235</v>
       </c>
       <c r="C31" t="n">
-        <v>16.08563785769292</v>
+        <v>16.08563785769289</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>16.61426079718374</v>
+        <v>16.61426079718371</v>
       </c>
       <c r="H31" t="n">
-        <v>9.149684327480813</v>
+        <v>9.149684327480784</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.4409563689422</v>
+        <v>16.44095636894217</v>
       </c>
       <c r="S31" t="n">
-        <v>69.09922198611024</v>
+        <v>69.09922198611021</v>
       </c>
       <c r="T31" t="n">
-        <v>75.8634825458934</v>
+        <v>75.86348254589338</v>
       </c>
       <c r="U31" t="n">
         <v>135.1460896435374</v>
@@ -3013,10 +3013,10 @@
         <v>135.3618150956561</v>
       </c>
       <c r="X31" t="n">
-        <v>74.54847214810223</v>
+        <v>74.54847214810221</v>
       </c>
       <c r="Y31" t="n">
-        <v>67.42347011115987</v>
+        <v>67.42347011115984</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>225.290642024894</v>
       </c>
       <c r="C32" t="n">
-        <v>207.8296921324209</v>
+        <v>207.829692132421</v>
       </c>
       <c r="D32" t="n">
         <v>197.2398419820964</v>
@@ -3038,16 +3038,16 @@
         <v>224.4871704336752</v>
       </c>
       <c r="F32" t="n">
-        <v>249.4328461031248</v>
+        <v>249.4328461031249</v>
       </c>
       <c r="G32" t="n">
-        <v>257.3790388526746</v>
+        <v>257.3790388526747</v>
       </c>
       <c r="H32" t="n">
         <v>177.1106918489332</v>
       </c>
       <c r="I32" t="n">
-        <v>34.50825131392523</v>
+        <v>34.50825131392526</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.62749844113486</v>
+        <v>40.62749844113489</v>
       </c>
       <c r="T32" t="n">
-        <v>63.54926544853726</v>
+        <v>63.54926544853728</v>
       </c>
       <c r="U32" t="n">
-        <v>93.86401334733998</v>
+        <v>93.86401334734001</v>
       </c>
       <c r="V32" t="n">
         <v>170.3090588315483</v>
@@ -3092,7 +3092,7 @@
         <v>191.7977690788264</v>
       </c>
       <c r="X32" t="n">
-        <v>212.2879010398824</v>
+        <v>212.2879010398825</v>
       </c>
       <c r="Y32" t="n">
         <v>228.794739017467</v>
@@ -3108,7 +3108,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>139.4391948930575</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3117,13 +3117,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0864275203899</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.7524995282011</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,22 +3153,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>84.1957245747009</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>166.9078437470573</v>
       </c>
       <c r="T33" t="n">
-        <v>41.68527738188286</v>
+        <v>199.1284770204695</v>
       </c>
       <c r="U33" t="n">
-        <v>68.48126865009738</v>
+        <v>68.48126865009741</v>
       </c>
       <c r="V33" t="n">
-        <v>75.35738751083866</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>119.2700137439748</v>
+        <v>94.25178352233303</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.38878054335069</v>
+        <v>22.38878054335072</v>
       </c>
       <c r="C34" t="n">
-        <v>9.803621460041228</v>
+        <v>9.803621460041256</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>10.33224439953205</v>
+        <v>10.33224439953208</v>
       </c>
       <c r="H34" t="n">
-        <v>2.867667929829124</v>
+        <v>2.867667929829152</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.15893997129051</v>
+        <v>10.15893997129054</v>
       </c>
       <c r="S34" t="n">
-        <v>62.81720558845854</v>
+        <v>62.81720558845857</v>
       </c>
       <c r="T34" t="n">
-        <v>69.58146614824172</v>
+        <v>69.58146614824174</v>
       </c>
       <c r="U34" t="n">
         <v>128.8640732458857</v>
       </c>
       <c r="V34" t="n">
-        <v>94.6944436852414</v>
+        <v>94.69444368524142</v>
       </c>
       <c r="W34" t="n">
         <v>129.0797986980044</v>
       </c>
       <c r="X34" t="n">
-        <v>68.26645575045055</v>
+        <v>68.26645575045058</v>
       </c>
       <c r="Y34" t="n">
-        <v>61.14145371350818</v>
+        <v>61.14145371350821</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>178.7112570264254</v>
+        <v>178.7112570264255</v>
       </c>
       <c r="C35" t="n">
-        <v>161.2503071339524</v>
+        <v>161.2503071339525</v>
       </c>
       <c r="D35" t="n">
-        <v>150.6604569836278</v>
+        <v>150.6604569836279</v>
       </c>
       <c r="E35" t="n">
-        <v>177.9077854352066</v>
+        <v>177.9077854352067</v>
       </c>
       <c r="F35" t="n">
-        <v>202.8534611046563</v>
+        <v>202.8534611046564</v>
       </c>
       <c r="G35" t="n">
-        <v>210.7996538542061</v>
+        <v>210.7996538542062</v>
       </c>
       <c r="H35" t="n">
-        <v>130.5313068504646</v>
+        <v>130.5313068504647</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>16.96988045006873</v>
+        <v>16.96988045006879</v>
       </c>
       <c r="U35" t="n">
-        <v>47.28462834887145</v>
+        <v>47.28462834887151</v>
       </c>
       <c r="V35" t="n">
         <v>123.7296738330798</v>
@@ -3329,7 +3329,7 @@
         <v>145.2183840803579</v>
       </c>
       <c r="X35" t="n">
-        <v>165.7085160414139</v>
+        <v>165.708516041414</v>
       </c>
       <c r="Y35" t="n">
         <v>182.2153540189985</v>
@@ -3354,7 +3354,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.54508155254206</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.9078437470573</v>
       </c>
       <c r="T36" t="n">
-        <v>47.08803537075443</v>
+        <v>199.1284770204695</v>
       </c>
       <c r="U36" t="n">
-        <v>225.924468288684</v>
+        <v>21.9018836516289</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>53.35075554886647</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23782058999002</v>
+        <v>16.23782058999007</v>
       </c>
       <c r="T37" t="n">
-        <v>23.00208114977319</v>
+        <v>23.00208114977324</v>
       </c>
       <c r="U37" t="n">
-        <v>82.28468824741721</v>
+        <v>82.28468824741726</v>
       </c>
       <c r="V37" t="n">
-        <v>48.11505868677287</v>
+        <v>48.11505868677293</v>
       </c>
       <c r="W37" t="n">
-        <v>82.50041369953587</v>
+        <v>82.50041369953593</v>
       </c>
       <c r="X37" t="n">
-        <v>21.68707075198202</v>
+        <v>21.68707075198208</v>
       </c>
       <c r="Y37" t="n">
-        <v>14.56206871503966</v>
+        <v>14.56206871503971</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>178.7112570264254</v>
+        <v>178.7112570264255</v>
       </c>
       <c r="C38" t="n">
-        <v>161.2503071339524</v>
+        <v>161.2503071339525</v>
       </c>
       <c r="D38" t="n">
-        <v>150.6604569836278</v>
+        <v>150.6604569836279</v>
       </c>
       <c r="E38" t="n">
-        <v>177.9077854352066</v>
+        <v>177.9077854352067</v>
       </c>
       <c r="F38" t="n">
-        <v>202.8534611046563</v>
+        <v>202.8534611046564</v>
       </c>
       <c r="G38" t="n">
-        <v>210.7996538542061</v>
+        <v>210.7996538542062</v>
       </c>
       <c r="H38" t="n">
-        <v>130.5313068504646</v>
+        <v>130.5313068504647</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>16.96988045006873</v>
+        <v>16.96988045006879</v>
       </c>
       <c r="U38" t="n">
-        <v>47.28462834887145</v>
+        <v>47.28462834887151</v>
       </c>
       <c r="V38" t="n">
         <v>123.7296738330798</v>
@@ -3566,7 +3566,7 @@
         <v>145.2183840803579</v>
       </c>
       <c r="X38" t="n">
-        <v>165.7085160414139</v>
+        <v>165.708516041414</v>
       </c>
       <c r="Y38" t="n">
         <v>182.2153540189985</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>84.1957245747009</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.9078437470573</v>
       </c>
       <c r="T39" t="n">
-        <v>199.1284770204695</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>95.34799789545177</v>
+        <v>21.9018836516289</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>87.73842644209297</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23782058999002</v>
+        <v>16.23782058999007</v>
       </c>
       <c r="T40" t="n">
-        <v>23.00208114977319</v>
+        <v>23.00208114977324</v>
       </c>
       <c r="U40" t="n">
-        <v>82.28468824741721</v>
+        <v>82.28468824741726</v>
       </c>
       <c r="V40" t="n">
-        <v>48.11505868677287</v>
+        <v>48.11505868677293</v>
       </c>
       <c r="W40" t="n">
-        <v>82.50041369953587</v>
+        <v>82.50041369953593</v>
       </c>
       <c r="X40" t="n">
-        <v>21.68707075198202</v>
+        <v>21.68707075198208</v>
       </c>
       <c r="Y40" t="n">
-        <v>14.56206871503966</v>
+        <v>14.56206871503971</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>178.7112570264255</v>
       </c>
       <c r="C41" t="n">
-        <v>161.2503071339525</v>
+        <v>161.2503071339524</v>
       </c>
       <c r="D41" t="n">
         <v>150.6604569836279</v>
@@ -3749,7 +3749,7 @@
         <v>177.9077854352067</v>
       </c>
       <c r="F41" t="n">
-        <v>202.8534611046564</v>
+        <v>202.8534611046563</v>
       </c>
       <c r="G41" t="n">
         <v>210.7996538542062</v>
@@ -3791,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>16.96988045006882</v>
+        <v>16.96988045006876</v>
       </c>
       <c r="U41" t="n">
-        <v>47.28462834887154</v>
+        <v>47.28462834887149</v>
       </c>
       <c r="V41" t="n">
-        <v>123.7296738330799</v>
+        <v>123.7296738330798</v>
       </c>
       <c r="W41" t="n">
-        <v>145.218384080358</v>
+        <v>145.2183840803579</v>
       </c>
       <c r="X41" t="n">
-        <v>165.708516041414</v>
+        <v>165.7085160414139</v>
       </c>
       <c r="Y41" t="n">
         <v>182.2153540189985</v>
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0864275203899</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.54508155254206</v>
+        <v>49.50006164657781</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>84.1957245747009</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.9078437470573</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>80.86230758135136</v>
+        <v>21.90188365162888</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.660111140249313</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>16.2378205899901</v>
+        <v>16.23782058999004</v>
       </c>
       <c r="T43" t="n">
-        <v>23.00208114977327</v>
+        <v>23.00208114977321</v>
       </c>
       <c r="U43" t="n">
-        <v>82.28468824741729</v>
+        <v>82.28468824741724</v>
       </c>
       <c r="V43" t="n">
-        <v>48.11505868677295</v>
+        <v>48.1150586867729</v>
       </c>
       <c r="W43" t="n">
-        <v>82.50041369953595</v>
+        <v>82.5004136995359</v>
       </c>
       <c r="X43" t="n">
-        <v>21.68707075198211</v>
+        <v>21.68707075198205</v>
       </c>
       <c r="Y43" t="n">
-        <v>14.56206871503974</v>
+        <v>14.56206871503969</v>
       </c>
     </row>
     <row r="44">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4065,16 +4065,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0864275203899</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.7524995282011</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.54508155254206</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.9078437470573</v>
+        <v>132.5272245398824</v>
       </c>
       <c r="T45" t="n">
         <v>199.1284770204695</v>
@@ -4116,13 +4116,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>115.4169112461501</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>1.750400566422371</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.660111140249256</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="C2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="D2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="E2" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="F2" t="n">
-        <v>32.13884024390788</v>
+        <v>28.75151886964269</v>
       </c>
       <c r="G2" t="n">
-        <v>16.68152962255934</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="H2" t="n">
-        <v>16.68152962255934</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="I2" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="J2" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K2" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L2" t="n">
-        <v>1.224219001210804</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M2" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N2" t="n">
         <v>30.9115297805728</v>
@@ -4349,31 +4349,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="R2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="T2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="U2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="V2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="W2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="X2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="Y2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="C3" t="n">
-        <v>45.75363943919166</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="D3" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="E3" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="F3" t="n">
-        <v>30.29632881784312</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="G3" t="n">
-        <v>30.29632881784312</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="H3" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I3" t="n">
         <v>1.978351653996518</v>
@@ -4410,49 +4410,49 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K3" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L3" t="n">
-        <v>1.224219001210804</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M3" t="n">
-        <v>1.224219001210804</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="N3" t="n">
-        <v>15.7618196405891</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="O3" t="n">
-        <v>30.9115297805728</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P3" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q3" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Y3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.59615086525642</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="C4" t="n">
-        <v>32.13884024390788</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="D4" t="n">
-        <v>16.68152962255934</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="E4" t="n">
-        <v>16.68152962255934</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="F4" t="n">
         <v>16.68152962255934</v>
@@ -4483,7 +4483,7 @@
         <v>16.68152962255934</v>
       </c>
       <c r="I4" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J4" t="n">
         <v>1.224219001210804</v>
@@ -4531,7 +4531,7 @@
         <v>58.46202002507908</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.59615086525642</v>
+        <v>58.46202002507908</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.13884024390788</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="C5" t="n">
-        <v>32.13884024390788</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="D5" t="n">
-        <v>32.13884024390788</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="E5" t="n">
-        <v>32.13884024390788</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="F5" t="n">
-        <v>16.68152962255934</v>
+        <v>44.17383394310966</v>
       </c>
       <c r="G5" t="n">
-        <v>1.224219001210804</v>
+        <v>28.71652332176112</v>
       </c>
       <c r="H5" t="n">
-        <v>1.224219001210804</v>
+        <v>28.71652332176112</v>
       </c>
       <c r="I5" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="J5" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K5" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="L5" t="n">
         <v>15.7618196405891</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
+        <v>15.7618196405891</v>
+      </c>
+      <c r="N5" t="n">
         <v>30.9115297805728</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>46.0612399205565</v>
-      </c>
-      <c r="N5" t="n">
-        <v>61.2109500605402</v>
-      </c>
-      <c r="O5" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="P5" t="n">
         <v>61.2109500605402</v>
@@ -4595,22 +4595,22 @@
         <v>51.11933469231312</v>
       </c>
       <c r="T5" t="n">
-        <v>35.66202407096459</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="U5" t="n">
-        <v>32.13884024390788</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="V5" t="n">
-        <v>32.13884024390788</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="W5" t="n">
-        <v>32.13884024390788</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="X5" t="n">
-        <v>32.13884024390788</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="Y5" t="n">
-        <v>32.13884024390788</v>
+        <v>51.11933469231312</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="C6" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="D6" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="E6" t="n">
-        <v>30.29632881784312</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="F6" t="n">
-        <v>14.83901819649459</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="G6" t="n">
-        <v>14.83901819649459</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="H6" t="n">
         <v>1.978351653996518</v>
@@ -4647,16 +4647,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K6" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="N6" t="n">
         <v>16.37392914119451</v>
-      </c>
-      <c r="L6" t="n">
-        <v>16.37392914119451</v>
-      </c>
-      <c r="M6" t="n">
-        <v>31.52363928117821</v>
-      </c>
-      <c r="N6" t="n">
-        <v>31.52363928117821</v>
       </c>
       <c r="O6" t="n">
         <v>31.52363928117821</v>
@@ -4668,28 +4668,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U6" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V6" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W6" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X6" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y6" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.224219001210804</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="C7" t="n">
-        <v>1.224219001210804</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="D7" t="n">
-        <v>1.224219001210804</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="E7" t="n">
-        <v>1.224219001210804</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="F7" t="n">
-        <v>1.224219001210804</v>
+        <v>12.09008816103347</v>
       </c>
       <c r="G7" t="n">
         <v>1.224219001210804</v>
@@ -4762,13 +4762,13 @@
         <v>58.46202002507908</v>
       </c>
       <c r="W7" t="n">
+        <v>58.46202002507908</v>
+      </c>
+      <c r="X7" t="n">
+        <v>58.46202002507908</v>
+      </c>
+      <c r="Y7" t="n">
         <v>43.00470940373054</v>
-      </c>
-      <c r="X7" t="n">
-        <v>27.54739878238201</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>12.09008816103347</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="E8" t="n">
-        <v>118.3517937444931</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="F8" t="n">
-        <v>78.36807964162378</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="G8" t="n">
-        <v>55.22041350689989</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H8" t="n">
-        <v>55.22041350689989</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I8" t="n">
         <v>15.2366994040306</v>
@@ -4808,46 +4808,46 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M8" t="n">
-        <v>120.7308247336138</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N8" t="n">
-        <v>158.3355078473624</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O8" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P8" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
     </row>
     <row r="9">
@@ -4863,19 +4863,19 @@
         <v>158.3355078473624</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="F9" t="n">
-        <v>123.8719851183408</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="G9" t="n">
-        <v>83.88827101547153</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I9" t="n">
         <v>3.920842809732961</v>
@@ -4884,13 +4884,13 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
-        <v>81.54278654139161</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M9" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N9" t="n">
         <v>119.1474696551402</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K10" t="n">
         <v>3.166710156947247</v>
@@ -4978,34 +4978,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.46354404567346</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R10" t="n">
-        <v>90.46354404567346</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S10" t="n">
-        <v>90.46354404567346</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T10" t="n">
-        <v>50.47982994280417</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U10" t="n">
-        <v>50.47982994280417</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V10" t="n">
-        <v>50.47982994280417</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W10" t="n">
-        <v>50.47982994280417</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1203.544394876973</v>
+        <v>1018.007140460938</v>
       </c>
       <c r="C11" t="n">
-        <v>961.9667378355196</v>
+        <v>776.4294834194845</v>
       </c>
       <c r="D11" t="n">
-        <v>731.0858991277273</v>
+        <v>776.4294834194845</v>
       </c>
       <c r="E11" t="n">
-        <v>673.2490182412973</v>
+        <v>518.0260907201985</v>
       </c>
       <c r="F11" t="n">
-        <v>389.647973350648</v>
+        <v>518.0260907201985</v>
       </c>
       <c r="G11" t="n">
-        <v>98.02047113722098</v>
+        <v>226.3985885067713</v>
       </c>
       <c r="H11" t="n">
-        <v>98.02047113722098</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="I11" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="J11" t="n">
-        <v>60.05911656485861</v>
+        <v>60.05911656485864</v>
       </c>
       <c r="K11" t="n">
         <v>223.584187406785</v>
@@ -5051,40 +5051,40 @@
         <v>779.2314624507302</v>
       </c>
       <c r="N11" t="n">
-        <v>1140.499730118171</v>
+        <v>1069.965260314555</v>
       </c>
       <c r="O11" t="n">
-        <v>1369.843773370446</v>
+        <v>1299.30930356683</v>
       </c>
       <c r="P11" t="n">
-        <v>1527.909225316758</v>
+        <v>1534.270015082318</v>
       </c>
       <c r="Q11" t="n">
-        <v>1569.388037169066</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="R11" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="S11" t="n">
-        <v>1503.062274631843</v>
+        <v>1503.062274631845</v>
       </c>
       <c r="T11" t="n">
-        <v>1407.222422321585</v>
+        <v>1407.222422321587</v>
       </c>
       <c r="U11" t="n">
-        <v>1407.222422321585</v>
+        <v>1280.761612537792</v>
       </c>
       <c r="V11" t="n">
-        <v>1203.544394876973</v>
+        <v>1280.761612537792</v>
       </c>
       <c r="W11" t="n">
-        <v>1203.544394876973</v>
+        <v>1280.761612537792</v>
       </c>
       <c r="X11" t="n">
-        <v>1203.544394876973</v>
+        <v>1280.761612537792</v>
       </c>
       <c r="Y11" t="n">
-        <v>1203.544394876973</v>
+        <v>1018.007140460938</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>289.6061277732932</v>
+        <v>527.852098306798</v>
       </c>
       <c r="C12" t="n">
-        <v>115.1530984921662</v>
+        <v>480.7839289246292</v>
       </c>
       <c r="D12" t="n">
-        <v>93.6035487298731</v>
+        <v>331.8495192633779</v>
       </c>
       <c r="E12" t="n">
-        <v>61.75095362337581</v>
+        <v>299.9969241568807</v>
       </c>
       <c r="F12" t="n">
-        <v>42.60125554921898</v>
+        <v>280.8472260827239</v>
       </c>
       <c r="G12" t="n">
-        <v>31.51497653869248</v>
+        <v>142.3760871732391</v>
       </c>
       <c r="H12" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="I12" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="J12" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="K12" t="n">
-        <v>31.51497653869248</v>
+        <v>104.5068287035393</v>
       </c>
       <c r="L12" t="n">
-        <v>316.7410233726724</v>
+        <v>389.7328755375193</v>
       </c>
       <c r="M12" t="n">
-        <v>701.5655884247353</v>
+        <v>774.5574405895823</v>
       </c>
       <c r="N12" t="n">
-        <v>933.3098801844819</v>
+        <v>1164.555275255902</v>
       </c>
       <c r="O12" t="n">
-        <v>1242.619778634924</v>
+        <v>1473.865173706344</v>
       </c>
       <c r="P12" t="n">
-        <v>1473.865173706342</v>
+        <v>1473.865173706344</v>
       </c>
       <c r="Q12" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="R12" t="n">
-        <v>1575.748826934624</v>
+        <v>1490.702640495534</v>
       </c>
       <c r="S12" t="n">
-        <v>1407.15504537194</v>
+        <v>1322.108858932849</v>
       </c>
       <c r="T12" t="n">
-        <v>1208.874682651851</v>
+        <v>1120.968983154597</v>
       </c>
       <c r="U12" t="n">
-        <v>1108.053008925876</v>
+        <v>1020.147309428622</v>
       </c>
       <c r="V12" t="n">
-        <v>872.900900694133</v>
+        <v>912.380061095838</v>
       </c>
       <c r="W12" t="n">
-        <v>618.6635439659315</v>
+        <v>729.524654600478</v>
       </c>
       <c r="X12" t="n">
-        <v>538.1969036593568</v>
+        <v>649.0580142939034</v>
       </c>
       <c r="Y12" t="n">
-        <v>330.436604894403</v>
+        <v>568.6825754279078</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>235.5506101893239</v>
+        <v>235.5506101893231</v>
       </c>
       <c r="C13" t="n">
-        <v>193.9992871603752</v>
+        <v>193.9992871603743</v>
       </c>
       <c r="D13" t="n">
-        <v>171.2675076469977</v>
+        <v>171.2675076469968</v>
       </c>
       <c r="E13" t="n">
-        <v>150.7392739635628</v>
+        <v>150.7392739635621</v>
       </c>
       <c r="F13" t="n">
-        <v>131.2341863646107</v>
+        <v>131.2341863646102</v>
       </c>
       <c r="G13" t="n">
-        <v>89.1489007705197</v>
+        <v>89.14890077051928</v>
       </c>
       <c r="H13" t="n">
-        <v>54.60359140845183</v>
+        <v>54.60359140845139</v>
       </c>
       <c r="I13" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="J13" t="n">
-        <v>79.02525308672035</v>
+        <v>79.0252530867204</v>
       </c>
       <c r="K13" t="n">
-        <v>206.6192299115842</v>
+        <v>206.6192299115843</v>
       </c>
       <c r="L13" t="n">
         <v>390.5070377658449</v>
       </c>
       <c r="M13" t="n">
-        <v>587.9932569026558</v>
+        <v>587.993256902656</v>
       </c>
       <c r="N13" t="n">
-        <v>789.1869631706259</v>
+        <v>789.1869631706262</v>
       </c>
       <c r="O13" t="n">
-        <v>968.5364294383257</v>
+        <v>968.5364294383255</v>
       </c>
       <c r="P13" t="n">
         <v>1116.499441413782</v>
@@ -5227,22 +5227,22 @@
         <v>1036.905953780241</v>
       </c>
       <c r="T13" t="n">
-        <v>934.9729694500796</v>
+        <v>934.9729694500795</v>
       </c>
       <c r="U13" t="n">
-        <v>773.1585638091675</v>
+        <v>773.1585638091667</v>
       </c>
       <c r="V13" t="n">
-        <v>645.8589355022389</v>
+        <v>645.8589355022378</v>
       </c>
       <c r="W13" t="n">
-        <v>483.8266253642365</v>
+        <v>483.8266253642355</v>
       </c>
       <c r="X13" t="n">
-        <v>383.2219343651774</v>
+        <v>383.2219343651764</v>
       </c>
       <c r="Y13" t="n">
-        <v>289.8142151206055</v>
+        <v>289.8142151206046</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>868.8493893042504</v>
+        <v>927.3185649088125</v>
       </c>
       <c r="C14" t="n">
-        <v>868.8493893042504</v>
+        <v>927.3185649088125</v>
       </c>
       <c r="D14" t="n">
-        <v>637.968550596458</v>
+        <v>927.3185649088125</v>
       </c>
       <c r="E14" t="n">
-        <v>592.1698798536802</v>
+        <v>668.9151722095264</v>
       </c>
       <c r="F14" t="n">
-        <v>308.5688349630303</v>
+        <v>385.3141273188771</v>
       </c>
       <c r="G14" t="n">
-        <v>308.5688349630303</v>
+        <v>242.0633403645018</v>
       </c>
       <c r="H14" t="n">
-        <v>98.02047113722105</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="I14" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="J14" t="n">
-        <v>130.5935863684745</v>
+        <v>60.05911656485864</v>
       </c>
       <c r="K14" t="n">
-        <v>294.118657210401</v>
+        <v>223.584187406785</v>
       </c>
       <c r="L14" t="n">
-        <v>549.2625950079221</v>
+        <v>478.7281252043061</v>
       </c>
       <c r="M14" t="n">
-        <v>849.7659322543461</v>
+        <v>779.2314624507302</v>
       </c>
       <c r="N14" t="n">
-        <v>1140.499730118171</v>
+        <v>1069.965260314555</v>
       </c>
       <c r="O14" t="n">
-        <v>1369.843773370446</v>
+        <v>1299.30930356683</v>
       </c>
       <c r="P14" t="n">
-        <v>1527.909225316758</v>
+        <v>1457.374755513143</v>
       </c>
       <c r="Q14" t="n">
-        <v>1569.388037169066</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="R14" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="S14" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="T14" t="n">
-        <v>1479.908974624366</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="U14" t="n">
-        <v>1353.44816484057</v>
+        <v>1449.28801715083</v>
       </c>
       <c r="V14" t="n">
-        <v>1353.44816484057</v>
+        <v>1449.28801715083</v>
       </c>
       <c r="W14" t="n">
-        <v>1128.064369469414</v>
+        <v>1449.28801715083</v>
       </c>
       <c r="X14" t="n">
-        <v>1128.064369469414</v>
+        <v>1449.28801715083</v>
       </c>
       <c r="Y14" t="n">
-        <v>1128.064369469414</v>
+        <v>1186.533545073976</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>289.6061277732934</v>
+        <v>625.7345158061006</v>
       </c>
       <c r="C15" t="n">
-        <v>115.1530984921664</v>
+        <v>451.2814865249736</v>
       </c>
       <c r="D15" t="n">
-        <v>93.60354872987327</v>
+        <v>429.7319367626805</v>
       </c>
       <c r="E15" t="n">
-        <v>61.75095362337592</v>
+        <v>270.494481757225</v>
       </c>
       <c r="F15" t="n">
-        <v>42.60125554921904</v>
+        <v>123.95992378411</v>
       </c>
       <c r="G15" t="n">
-        <v>31.51497653869248</v>
+        <v>112.8736447735835</v>
       </c>
       <c r="H15" t="n">
-        <v>31.51497653869248</v>
+        <v>112.8736447735835</v>
       </c>
       <c r="I15" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="J15" t="n">
-        <v>54.82229110833841</v>
+        <v>39.93372588304067</v>
       </c>
       <c r="K15" t="n">
-        <v>54.82229110833841</v>
+        <v>206.390481931821</v>
       </c>
       <c r="L15" t="n">
-        <v>340.0483379423184</v>
+        <v>491.616528765801</v>
       </c>
       <c r="M15" t="n">
-        <v>543.3120455181624</v>
+        <v>876.4410938178639</v>
       </c>
       <c r="N15" t="n">
-        <v>933.3098801844819</v>
+        <v>1266.438928484184</v>
       </c>
       <c r="O15" t="n">
-        <v>1242.619778634924</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="P15" t="n">
-        <v>1473.865173706342</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="Q15" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="R15" t="n">
-        <v>1575.748826934624</v>
+        <v>1490.702640495534</v>
       </c>
       <c r="S15" t="n">
-        <v>1534.539905270898</v>
+        <v>1449.493718831808</v>
       </c>
       <c r="T15" t="n">
-        <v>1460.784889391604</v>
+        <v>1248.353843053556</v>
       </c>
       <c r="U15" t="n">
-        <v>1235.437868824834</v>
+        <v>1147.532169327581</v>
       </c>
       <c r="V15" t="n">
-        <v>1000.285760593092</v>
+        <v>1039.764920994796</v>
       </c>
       <c r="W15" t="n">
-        <v>746.04840386489</v>
+        <v>912.9124241655526</v>
       </c>
       <c r="X15" t="n">
-        <v>538.1969036593572</v>
+        <v>746.9404317932062</v>
       </c>
       <c r="Y15" t="n">
-        <v>330.4366048944033</v>
+        <v>666.5649929272105</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>235.5506101893242</v>
+        <v>235.5506101893239</v>
       </c>
       <c r="C16" t="n">
-        <v>193.9992871603755</v>
+        <v>193.9992871603752</v>
       </c>
       <c r="D16" t="n">
-        <v>171.2675076469979</v>
+        <v>171.2675076469977</v>
       </c>
       <c r="E16" t="n">
-        <v>150.7392739635629</v>
+        <v>150.7392739635628</v>
       </c>
       <c r="F16" t="n">
         <v>131.2341863646107</v>
       </c>
       <c r="G16" t="n">
-        <v>89.14890077051973</v>
+        <v>89.14890077051969</v>
       </c>
       <c r="H16" t="n">
-        <v>54.60359140845189</v>
+        <v>54.60359140845188</v>
       </c>
       <c r="I16" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="J16" t="n">
-        <v>79.0252530867203</v>
+        <v>79.02525308672037</v>
       </c>
       <c r="K16" t="n">
-        <v>206.6192299115841</v>
+        <v>206.6192299115842</v>
       </c>
       <c r="L16" t="n">
-        <v>390.5070377658462</v>
+        <v>390.5070377658448</v>
       </c>
       <c r="M16" t="n">
-        <v>587.9932569026572</v>
+        <v>587.9932569026558</v>
       </c>
       <c r="N16" t="n">
-        <v>789.1869631706273</v>
+        <v>789.1869631706261</v>
       </c>
       <c r="O16" t="n">
-        <v>968.5364294383271</v>
+        <v>968.5364294383259</v>
       </c>
       <c r="P16" t="n">
         <v>1116.499441413783</v>
@@ -5464,22 +5464,22 @@
         <v>1036.905953780242</v>
       </c>
       <c r="T16" t="n">
-        <v>934.972969450081</v>
+        <v>934.9729694500804</v>
       </c>
       <c r="U16" t="n">
-        <v>773.1585638091681</v>
+        <v>773.1585638091676</v>
       </c>
       <c r="V16" t="n">
-        <v>645.8589355022393</v>
+        <v>645.858935502239</v>
       </c>
       <c r="W16" t="n">
-        <v>483.8266253642369</v>
+        <v>483.8266253642365</v>
       </c>
       <c r="X16" t="n">
-        <v>383.2219343651777</v>
+        <v>383.2219343651774</v>
       </c>
       <c r="Y16" t="n">
-        <v>289.8142151206058</v>
+        <v>289.8142151206055</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>900.1648098240155</v>
+        <v>900.1648098240164</v>
       </c>
       <c r="C17" t="n">
-        <v>766.5853137980778</v>
+        <v>766.5853137980787</v>
       </c>
       <c r="D17" t="n">
-        <v>643.7026361058013</v>
+        <v>643.702636105802</v>
       </c>
       <c r="E17" t="n">
-        <v>493.297404422031</v>
+        <v>493.2974044220315</v>
       </c>
       <c r="F17" t="n">
-        <v>317.6945205468975</v>
+        <v>317.6945205468978</v>
       </c>
       <c r="G17" t="n">
-        <v>134.0651793489859</v>
+        <v>134.0651793489861</v>
       </c>
       <c r="H17" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="I17" t="n">
-        <v>72.18193889398169</v>
+        <v>61.88497004649352</v>
       </c>
       <c r="J17" t="n">
-        <v>100.7260789201478</v>
+        <v>90.42911007265965</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2511497620742</v>
+        <v>253.9541809145861</v>
       </c>
       <c r="L17" t="n">
-        <v>519.3950875595954</v>
+        <v>509.0981187121072</v>
       </c>
       <c r="M17" t="n">
-        <v>819.8984248060194</v>
+        <v>809.6014559585312</v>
       </c>
       <c r="N17" t="n">
-        <v>1110.632222669844</v>
+        <v>1100.335253822356</v>
       </c>
       <c r="O17" t="n">
-        <v>1339.976265922119</v>
+        <v>1329.679297074631</v>
       </c>
       <c r="P17" t="n">
-        <v>1498.041717868432</v>
+        <v>1487.744749020944</v>
       </c>
       <c r="Q17" t="n">
-        <v>1539.520529720739</v>
+        <v>1529.223560873251</v>
       </c>
       <c r="R17" t="n">
-        <v>1539.520529720739</v>
+        <v>1529.223560873251</v>
       </c>
       <c r="S17" t="n">
-        <v>1574.129437420091</v>
+        <v>1563.832468572602</v>
       </c>
       <c r="T17" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="U17" t="n">
-        <v>1557.286178166344</v>
+        <v>1557.286178166345</v>
       </c>
       <c r="V17" t="n">
-        <v>1461.606311737247</v>
+        <v>1461.606311737248</v>
       </c>
       <c r="W17" t="n">
-        <v>1344.220677381607</v>
+        <v>1344.220677381608</v>
       </c>
       <c r="X17" t="n">
-        <v>1206.137940035001</v>
+        <v>1206.137940035002</v>
       </c>
       <c r="Y17" t="n">
-        <v>1051.381628973663</v>
+        <v>1051.381628973664</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>612.2980840887324</v>
+        <v>614.5377103693064</v>
       </c>
       <c r="C18" t="n">
-        <v>437.8450548076054</v>
+        <v>440.0846810881794</v>
       </c>
       <c r="D18" t="n">
-        <v>288.9106451463541</v>
+        <v>440.0846810881794</v>
       </c>
       <c r="E18" t="n">
-        <v>288.9106451463541</v>
+        <v>280.8472260827239</v>
       </c>
       <c r="F18" t="n">
-        <v>142.3760871732391</v>
+        <v>280.8472260827239</v>
       </c>
       <c r="G18" t="n">
         <v>142.3760871732391</v>
       </c>
       <c r="H18" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="I18" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="J18" t="n">
-        <v>31.51497653869248</v>
+        <v>54.82229110833845</v>
       </c>
       <c r="K18" t="n">
-        <v>31.51497653869248</v>
+        <v>54.82229110833845</v>
       </c>
       <c r="L18" t="n">
-        <v>316.7410233726724</v>
+        <v>340.0483379423184</v>
       </c>
       <c r="M18" t="n">
-        <v>701.5655884247353</v>
+        <v>724.8729029943813</v>
       </c>
       <c r="N18" t="n">
-        <v>1091.563423091055</v>
+        <v>1035.193533412765</v>
       </c>
       <c r="O18" t="n">
-        <v>1344.503431863205</v>
+        <v>1344.503431863207</v>
       </c>
       <c r="P18" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="Q18" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="R18" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="S18" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="T18" t="n">
-        <v>1374.608951156372</v>
+        <v>1374.608951156373</v>
       </c>
       <c r="U18" t="n">
-        <v>1146.402417531438</v>
+        <v>1374.608951156373</v>
       </c>
       <c r="V18" t="n">
-        <v>1074.386941022467</v>
+        <v>1284.386866067995</v>
       </c>
       <c r="W18" t="n">
-        <v>820.1495842942652</v>
+        <v>1030.149509339793</v>
       </c>
       <c r="X18" t="n">
-        <v>612.2980840887324</v>
+        <v>822.2980091342604</v>
       </c>
       <c r="Y18" t="n">
-        <v>612.2980840887324</v>
+        <v>614.5377103693064</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="C19" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="D19" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="E19" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="F19" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="G19" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="H19" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="I19" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="J19" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
       <c r="K19" t="n">
-        <v>34.25905217658735</v>
+        <v>34.25905217658739</v>
       </c>
       <c r="L19" t="n">
-        <v>93.29695884387907</v>
+        <v>93.29695884387911</v>
       </c>
       <c r="M19" t="n">
         <v>165.9332767937212</v>
       </c>
       <c r="N19" t="n">
-        <v>242.2770818747224</v>
+        <v>242.2770818747225</v>
       </c>
       <c r="O19" t="n">
-        <v>296.7766469554533</v>
+        <v>296.7766469554534</v>
       </c>
       <c r="P19" t="n">
-        <v>319.8897577439407</v>
+        <v>319.8897577439408</v>
       </c>
       <c r="Q19" t="n">
-        <v>319.8897577439407</v>
+        <v>319.8897577439408</v>
       </c>
       <c r="R19" t="n">
-        <v>158.6668375779891</v>
+        <v>319.8897577439408</v>
       </c>
       <c r="S19" t="n">
-        <v>158.6668375779891</v>
+        <v>319.8897577439408</v>
       </c>
       <c r="T19" t="n">
-        <v>158.6668375779891</v>
+        <v>319.8897577439408</v>
       </c>
       <c r="U19" t="n">
-        <v>104.850592952592</v>
+        <v>266.0735131185435</v>
       </c>
       <c r="V19" t="n">
-        <v>85.54912566117912</v>
+        <v>246.7720458271305</v>
       </c>
       <c r="W19" t="n">
-        <v>31.51497653869248</v>
+        <v>192.7378967046437</v>
       </c>
       <c r="X19" t="n">
-        <v>31.51497653869248</v>
+        <v>192.7378967046437</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.51497653869248</v>
+        <v>31.51497653869251</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>900.164809824015</v>
+        <v>900.1648098240157</v>
       </c>
       <c r="C20" t="n">
-        <v>766.5853137980773</v>
+        <v>766.5853137980778</v>
       </c>
       <c r="D20" t="n">
-        <v>643.7026361058008</v>
+        <v>643.702636105801</v>
       </c>
       <c r="E20" t="n">
         <v>493.2974044220306</v>
       </c>
       <c r="F20" t="n">
-        <v>317.694520546897</v>
+        <v>317.6945205468969</v>
       </c>
       <c r="G20" t="n">
-        <v>134.0651793489859</v>
+        <v>134.0651793489861</v>
       </c>
       <c r="H20" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="I20" t="n">
-        <v>31.51497653869248</v>
+        <v>72.18193889398158</v>
       </c>
       <c r="J20" t="n">
-        <v>60.05911656485861</v>
+        <v>100.7260789201477</v>
       </c>
       <c r="K20" t="n">
-        <v>223.584187406785</v>
+        <v>264.2511497620741</v>
       </c>
       <c r="L20" t="n">
-        <v>478.7281252043061</v>
+        <v>519.3950875595953</v>
       </c>
       <c r="M20" t="n">
-        <v>779.2314624507302</v>
+        <v>819.8984248060193</v>
       </c>
       <c r="N20" t="n">
-        <v>1069.965260314555</v>
+        <v>1110.632222669844</v>
       </c>
       <c r="O20" t="n">
-        <v>1299.30930356683</v>
+        <v>1339.976265922119</v>
       </c>
       <c r="P20" t="n">
-        <v>1457.374755513143</v>
+        <v>1498.041717868432</v>
       </c>
       <c r="Q20" t="n">
-        <v>1498.85356736545</v>
+        <v>1539.520529720739</v>
       </c>
       <c r="R20" t="n">
-        <v>1563.8324685726</v>
+        <v>1539.520529720739</v>
       </c>
       <c r="S20" t="n">
-        <v>1563.8324685726</v>
+        <v>1563.832468572602</v>
       </c>
       <c r="T20" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="U20" t="n">
-        <v>1557.286178166344</v>
+        <v>1557.286178166345</v>
       </c>
       <c r="V20" t="n">
-        <v>1461.606311737247</v>
+        <v>1461.606311737248</v>
       </c>
       <c r="W20" t="n">
-        <v>1344.220677381606</v>
+        <v>1344.220677381608</v>
       </c>
       <c r="X20" t="n">
-        <v>1206.137940035001</v>
+        <v>1206.137940035002</v>
       </c>
       <c r="Y20" t="n">
-        <v>1051.381628973663</v>
+        <v>1051.381628973664</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>660.6744284596413</v>
+        <v>852.8942073290788</v>
       </c>
       <c r="C21" t="n">
-        <v>486.2213991785143</v>
+        <v>678.4411780479518</v>
       </c>
       <c r="D21" t="n">
-        <v>337.286989517263</v>
+        <v>529.5067683867005</v>
       </c>
       <c r="E21" t="n">
-        <v>178.0495345118075</v>
+        <v>370.2693133812451</v>
       </c>
       <c r="F21" t="n">
-        <v>31.51497653869248</v>
+        <v>223.7347554081301</v>
       </c>
       <c r="G21" t="n">
-        <v>31.51497653869248</v>
+        <v>223.7347554081301</v>
       </c>
       <c r="H21" t="n">
-        <v>31.51497653869248</v>
+        <v>112.8736447735835</v>
       </c>
       <c r="I21" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="J21" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="K21" t="n">
-        <v>31.51497653869248</v>
+        <v>197.9717325874728</v>
       </c>
       <c r="L21" t="n">
-        <v>316.7410233726724</v>
+        <v>483.1977794214528</v>
       </c>
       <c r="M21" t="n">
-        <v>701.5655884247353</v>
+        <v>868.0223444735158</v>
       </c>
       <c r="N21" t="n">
-        <v>1091.563423091055</v>
+        <v>1258.020179139835</v>
       </c>
       <c r="O21" t="n">
-        <v>1400.873321541497</v>
+        <v>1567.330077590277</v>
       </c>
       <c r="P21" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="Q21" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="R21" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="S21" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="T21" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="U21" t="n">
-        <v>1575.748826934624</v>
+        <v>1510.499009309091</v>
       </c>
       <c r="V21" t="n">
-        <v>1498.738921178398</v>
+        <v>1275.346901077348</v>
       </c>
       <c r="W21" t="n">
-        <v>1244.501564450196</v>
+        <v>1021.109544349147</v>
       </c>
       <c r="X21" t="n">
-        <v>1036.650064244663</v>
+        <v>1021.109544349147</v>
       </c>
       <c r="Y21" t="n">
-        <v>828.8897654797092</v>
+        <v>1021.109544349147</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="C22" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="D22" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="E22" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="F22" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="G22" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="H22" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="I22" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="J22" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="K22" t="n">
-        <v>34.25905217658735</v>
+        <v>34.25905217658738</v>
       </c>
       <c r="L22" t="n">
-        <v>93.29695884387907</v>
+        <v>93.2969588438791</v>
       </c>
       <c r="M22" t="n">
         <v>165.9332767937212</v>
@@ -5932,28 +5932,28 @@
         <v>319.8897577439407</v>
       </c>
       <c r="R22" t="n">
-        <v>158.6668375779891</v>
+        <v>319.8897577439407</v>
       </c>
       <c r="S22" t="n">
-        <v>158.6668375779891</v>
+        <v>319.8897577439407</v>
       </c>
       <c r="T22" t="n">
-        <v>158.6668375779891</v>
+        <v>158.6668375779896</v>
       </c>
       <c r="U22" t="n">
-        <v>104.850592952592</v>
+        <v>104.8505929525923</v>
       </c>
       <c r="V22" t="n">
-        <v>85.54912566117912</v>
+        <v>85.54912566117929</v>
       </c>
       <c r="W22" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="X22" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
     </row>
     <row r="23">
@@ -5963,73 +5963,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>900.1648098240156</v>
+        <v>900.1648098240164</v>
       </c>
       <c r="C23" t="n">
-        <v>766.5853137980779</v>
+        <v>766.5853137980785</v>
       </c>
       <c r="D23" t="n">
-        <v>643.7026361058014</v>
+        <v>643.7026361058017</v>
       </c>
       <c r="E23" t="n">
-        <v>493.2974044220311</v>
+        <v>493.2974044220314</v>
       </c>
       <c r="F23" t="n">
         <v>317.6945205468976</v>
       </c>
       <c r="G23" t="n">
-        <v>134.0651793489859</v>
+        <v>134.0651793489861</v>
       </c>
       <c r="H23" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="I23" t="n">
-        <v>72.18193889398169</v>
+        <v>61.88497004649307</v>
       </c>
       <c r="J23" t="n">
-        <v>100.7260789201478</v>
+        <v>90.4291100726592</v>
       </c>
       <c r="K23" t="n">
-        <v>264.2511497620742</v>
+        <v>253.9541809145856</v>
       </c>
       <c r="L23" t="n">
-        <v>519.3950875595954</v>
+        <v>509.0981187121067</v>
       </c>
       <c r="M23" t="n">
-        <v>819.8984248060194</v>
+        <v>809.6014559585308</v>
       </c>
       <c r="N23" t="n">
-        <v>1110.632222669844</v>
+        <v>1100.335253822356</v>
       </c>
       <c r="O23" t="n">
-        <v>1339.976265922119</v>
+        <v>1329.679297074631</v>
       </c>
       <c r="P23" t="n">
-        <v>1498.041717868432</v>
+        <v>1487.744749020943</v>
       </c>
       <c r="Q23" t="n">
-        <v>1539.520529720739</v>
+        <v>1529.223560873251</v>
       </c>
       <c r="R23" t="n">
-        <v>1563.8324685726</v>
+        <v>1529.223560873251</v>
       </c>
       <c r="S23" t="n">
-        <v>1563.8324685726</v>
+        <v>1563.832468572602</v>
       </c>
       <c r="T23" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="U23" t="n">
-        <v>1557.286178166344</v>
+        <v>1557.286178166346</v>
       </c>
       <c r="V23" t="n">
-        <v>1461.606311737247</v>
+        <v>1461.606311737249</v>
       </c>
       <c r="W23" t="n">
-        <v>1344.220677381607</v>
+        <v>1344.220677381608</v>
       </c>
       <c r="X23" t="n">
-        <v>1206.137940035001</v>
+        <v>1206.137940035002</v>
       </c>
       <c r="Y23" t="n">
         <v>1051.381628973664</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>660.6744284596413</v>
+        <v>737.6843342158688</v>
       </c>
       <c r="C24" t="n">
-        <v>486.2213991785143</v>
+        <v>563.2313049347418</v>
       </c>
       <c r="D24" t="n">
-        <v>337.286989517263</v>
+        <v>414.2968952734906</v>
       </c>
       <c r="E24" t="n">
-        <v>178.0495345118075</v>
+        <v>255.0594402680351</v>
       </c>
       <c r="F24" t="n">
-        <v>31.51497653869248</v>
+        <v>108.52488229492</v>
       </c>
       <c r="G24" t="n">
-        <v>31.51497653869248</v>
+        <v>108.52488229492</v>
       </c>
       <c r="H24" t="n">
-        <v>31.51497653869248</v>
+        <v>108.52488229492</v>
       </c>
       <c r="I24" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="J24" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="K24" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="L24" t="n">
-        <v>260.3711336943812</v>
+        <v>316.7410233726725</v>
       </c>
       <c r="M24" t="n">
-        <v>645.1956987464441</v>
+        <v>701.5655884247354</v>
       </c>
       <c r="N24" t="n">
-        <v>1035.193533412764</v>
+        <v>1091.563423091055</v>
       </c>
       <c r="O24" t="n">
-        <v>1344.503431863205</v>
+        <v>1400.873321541497</v>
       </c>
       <c r="P24" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="Q24" t="n">
-        <v>1575.748826934624</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="R24" t="n">
-        <v>1498.738921178398</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="S24" t="n">
-        <v>1498.738921178398</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="T24" t="n">
-        <v>1498.738921178398</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="U24" t="n">
-        <v>1498.738921178398</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="V24" t="n">
-        <v>1498.738921178398</v>
+        <v>1575.748826934625</v>
       </c>
       <c r="W24" t="n">
-        <v>1244.501564450196</v>
+        <v>1321.511470206424</v>
       </c>
       <c r="X24" t="n">
-        <v>1036.650064244663</v>
+        <v>1113.659970000891</v>
       </c>
       <c r="Y24" t="n">
-        <v>828.8897654797092</v>
+        <v>905.8996712359369</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="C25" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="D25" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="E25" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="F25" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="G25" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="H25" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="I25" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="J25" t="n">
-        <v>31.51497653869248</v>
+        <v>31.5149765386925</v>
       </c>
       <c r="K25" t="n">
-        <v>34.25905217658735</v>
+        <v>34.25905217658738</v>
       </c>
       <c r="L25" t="n">
-        <v>93.29695884387907</v>
+        <v>93.2969588438791</v>
       </c>
       <c r="M25" t="n">
         <v>165.9332767937212</v>
@@ -6166,31 +6166,31 @@
         <v>319.8897577439407</v>
       </c>
       <c r="Q25" t="n">
-        <v>319.8897577439407</v>
+        <v>251.0878392679658</v>
       </c>
       <c r="R25" t="n">
-        <v>319.8897577439407</v>
+        <v>251.0878392679658</v>
       </c>
       <c r="S25" t="n">
-        <v>158.6668375779891</v>
+        <v>251.0878392679658</v>
       </c>
       <c r="T25" t="n">
-        <v>158.6668375779891</v>
+        <v>251.0878392679658</v>
       </c>
       <c r="U25" t="n">
-        <v>104.850592952592</v>
+        <v>197.2715946425685</v>
       </c>
       <c r="V25" t="n">
-        <v>85.54912566117912</v>
+        <v>177.9701273511555</v>
       </c>
       <c r="W25" t="n">
-        <v>31.51497653869248</v>
+        <v>123.9359782286687</v>
       </c>
       <c r="X25" t="n">
-        <v>31.51497653869248</v>
+        <v>123.9359782286687</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.51497653869248</v>
+        <v>123.9359782286687</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>1461.03606248055</v>
       </c>
       <c r="C26" t="n">
-        <v>1244.761609419871</v>
+        <v>1244.76160941987</v>
       </c>
       <c r="D26" t="n">
         <v>1039.183974692852</v>
       </c>
       <c r="E26" t="n">
-        <v>806.0837859743405</v>
+        <v>806.0837859743399</v>
       </c>
       <c r="F26" t="n">
-        <v>547.7859450644652</v>
+        <v>547.7859450644646</v>
       </c>
       <c r="G26" t="n">
-        <v>281.4616468318127</v>
+        <v>281.4616468318116</v>
       </c>
       <c r="H26" t="n">
-        <v>96.21648698677745</v>
+        <v>96.21648698677646</v>
       </c>
       <c r="I26" t="n">
         <v>55.014196369022</v>
@@ -6227,25 +6227,25 @@
         <v>233.2079078037137</v>
       </c>
       <c r="K26" t="n">
-        <v>546.3825500541666</v>
+        <v>546.3825500541657</v>
       </c>
       <c r="L26" t="n">
-        <v>951.1760592602133</v>
+        <v>951.1760592602124</v>
       </c>
       <c r="M26" t="n">
-        <v>1401.328967915163</v>
+        <v>1401.328967915162</v>
       </c>
       <c r="N26" t="n">
-        <v>1841.712337187513</v>
+        <v>1841.712337187512</v>
       </c>
       <c r="O26" t="n">
         <v>2220.705951848313</v>
       </c>
       <c r="P26" t="n">
-        <v>2528.420975203152</v>
+        <v>2528.420975203151</v>
       </c>
       <c r="Q26" t="n">
-        <v>2719.549358463984</v>
+        <v>2719.549358463985</v>
       </c>
       <c r="R26" t="n">
         <v>2750.7098184511</v>
@@ -6269,7 +6269,7 @@
         <v>1932.399106761019</v>
       </c>
       <c r="Y26" t="n">
-        <v>1694.94783866494</v>
+        <v>1694.947838664939</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>876.3934271594084</v>
+        <v>602.203901061946</v>
       </c>
       <c r="C27" t="n">
-        <v>701.9403978782814</v>
+        <v>427.750871780819</v>
       </c>
       <c r="D27" t="n">
-        <v>553.0059882170301</v>
+        <v>278.8164621195677</v>
       </c>
       <c r="E27" t="n">
-        <v>393.7685332115746</v>
+        <v>119.5790071141122</v>
       </c>
       <c r="F27" t="n">
-        <v>247.2339752384596</v>
+        <v>119.5790071141122</v>
       </c>
       <c r="G27" t="n">
-        <v>247.2339752384596</v>
+        <v>119.5790071141122</v>
       </c>
       <c r="H27" t="n">
-        <v>136.372864603913</v>
+        <v>119.5790071141122</v>
       </c>
       <c r="I27" t="n">
         <v>55.014196369022</v>
@@ -6336,19 +6336,19 @@
         <v>1903.627035637378</v>
       </c>
       <c r="U27" t="n">
-        <v>1828.108565892177</v>
+        <v>1675.420502012445</v>
       </c>
       <c r="V27" t="n">
-        <v>1592.956457660435</v>
+        <v>1440.268393780702</v>
       </c>
       <c r="W27" t="n">
-        <v>1338.719100932233</v>
+        <v>1186.031037052501</v>
       </c>
       <c r="X27" t="n">
-        <v>1130.8676007267</v>
+        <v>978.1795368469679</v>
       </c>
       <c r="Y27" t="n">
-        <v>923.1073019617463</v>
+        <v>770.4192380820141</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>88.74826077267537</v>
+        <v>86.57774198496983</v>
       </c>
       <c r="C28" t="n">
-        <v>72.50014172450071</v>
+        <v>70.32962293679518</v>
       </c>
       <c r="D28" t="n">
-        <v>75.02039484499605</v>
+        <v>72.84987605729052</v>
       </c>
       <c r="E28" t="n">
-        <v>75.35564949780901</v>
+        <v>77.52982444571261</v>
       </c>
       <c r="F28" t="n">
         <v>81.03838336363265</v>
@@ -6379,55 +6379,55 @@
         <v>55.014196369022</v>
       </c>
       <c r="I28" t="n">
-        <v>57.18471515672748</v>
+        <v>55.014196369022</v>
       </c>
       <c r="J28" t="n">
-        <v>129.494661926312</v>
+        <v>127.3241431386065</v>
       </c>
       <c r="K28" t="n">
-        <v>132.2387375642069</v>
+        <v>130.0682187765014</v>
       </c>
       <c r="L28" t="n">
-        <v>340.9262156400242</v>
+        <v>338.7556968523187</v>
       </c>
       <c r="M28" t="n">
-        <v>413.5625335898662</v>
+        <v>411.3920148021608</v>
       </c>
       <c r="N28" t="n">
-        <v>489.9063386708675</v>
+        <v>637.3853912916876</v>
       </c>
       <c r="O28" t="n">
-        <v>544.4059037515984</v>
+        <v>691.8849563724185</v>
       </c>
       <c r="P28" t="n">
-        <v>717.1685859486114</v>
+        <v>714.9980671609059</v>
       </c>
       <c r="Q28" t="n">
-        <v>799.3853970588339</v>
+        <v>797.2148782711283</v>
       </c>
       <c r="R28" t="n">
-        <v>782.7783704235387</v>
+        <v>780.6078516358332</v>
       </c>
       <c r="S28" t="n">
-        <v>712.9811764981748</v>
+        <v>710.8106577104693</v>
       </c>
       <c r="T28" t="n">
-        <v>636.3513961487876</v>
+        <v>634.180877361082</v>
       </c>
       <c r="U28" t="n">
-        <v>499.8401944886488</v>
+        <v>497.6696757009432</v>
       </c>
       <c r="V28" t="n">
-        <v>397.8437701624941</v>
+        <v>395.6732513747886</v>
       </c>
       <c r="W28" t="n">
-        <v>261.1146640052658</v>
+        <v>258.9441452175602</v>
       </c>
       <c r="X28" t="n">
-        <v>185.8131769869807</v>
+        <v>183.6426581992751</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.7086617231828</v>
+        <v>115.5381429354773</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1461.03606248055</v>
+        <v>1461.036062480549</v>
       </c>
       <c r="C29" t="n">
         <v>1244.76160941987</v>
@@ -6455,10 +6455,10 @@
         <v>281.4616468318118</v>
       </c>
       <c r="H29" t="n">
-        <v>96.21648698677643</v>
+        <v>96.21648698677654</v>
       </c>
       <c r="I29" t="n">
-        <v>55.01419636902197</v>
+        <v>55.01419636902199</v>
       </c>
       <c r="J29" t="n">
         <v>233.2079078037137</v>
@@ -6473,13 +6473,13 @@
         <v>1401.328967915162</v>
       </c>
       <c r="N29" t="n">
-        <v>1841.712337187512</v>
+        <v>1841.712337187513</v>
       </c>
       <c r="O29" t="n">
         <v>2220.705951848313</v>
       </c>
       <c r="P29" t="n">
-        <v>2528.420975203151</v>
+        <v>2528.420975203152</v>
       </c>
       <c r="Q29" t="n">
         <v>2719.549358463984</v>
@@ -6503,7 +6503,7 @@
         <v>2153.176801142366</v>
       </c>
       <c r="X29" t="n">
-        <v>1932.399106761018</v>
+        <v>1932.399106761019</v>
       </c>
       <c r="Y29" t="n">
         <v>1694.947838664939</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>822.6447871994554</v>
+        <v>904.0034554343464</v>
       </c>
       <c r="C30" t="n">
-        <v>648.1917579183284</v>
+        <v>729.5504261532194</v>
       </c>
       <c r="D30" t="n">
-        <v>499.2573482570772</v>
+        <v>580.6160164919681</v>
       </c>
       <c r="E30" t="n">
-        <v>340.0198932516217</v>
+        <v>421.3785614865127</v>
       </c>
       <c r="F30" t="n">
-        <v>193.4853352785067</v>
+        <v>274.8440035133976</v>
       </c>
       <c r="G30" t="n">
-        <v>55.01419636902197</v>
+        <v>136.3728646039129</v>
       </c>
       <c r="H30" t="n">
-        <v>55.01419636902197</v>
+        <v>136.3728646039129</v>
       </c>
       <c r="I30" t="n">
-        <v>55.01419636902197</v>
+        <v>55.01419636902199</v>
       </c>
       <c r="J30" t="n">
-        <v>78.32151093866791</v>
+        <v>78.32151093866793</v>
       </c>
       <c r="K30" t="n">
         <v>244.7782669874483</v>
@@ -6564,28 +6564,28 @@
         <v>1967.98456521885</v>
       </c>
       <c r="R30" t="n">
-        <v>1883.049323596895</v>
+        <v>1882.938378779758</v>
       </c>
       <c r="S30" t="n">
-        <v>1867.143605913943</v>
+        <v>1714.344597217074</v>
       </c>
       <c r="T30" t="n">
-        <v>1818.691794015423</v>
+        <v>1665.892785318554</v>
       </c>
       <c r="U30" t="n">
-        <v>1743.173324270222</v>
+        <v>1437.686251693621</v>
       </c>
       <c r="V30" t="n">
-        <v>1660.709279918212</v>
+        <v>1355.222207341611</v>
       </c>
       <c r="W30" t="n">
-        <v>1406.47192319001</v>
+        <v>1253.672914493141</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.620422984477</v>
+        <v>1198.509478167341</v>
       </c>
       <c r="Y30" t="n">
-        <v>990.8601242195234</v>
+        <v>990.7491794023867</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.28650241180731</v>
+        <v>97.28650241180722</v>
       </c>
       <c r="C31" t="n">
-        <v>81.03838336363263</v>
+        <v>81.03838336363259</v>
       </c>
       <c r="D31" t="n">
-        <v>81.03838336363263</v>
+        <v>81.03838336363259</v>
       </c>
       <c r="E31" t="n">
-        <v>81.03838336363263</v>
+        <v>81.03838336363259</v>
       </c>
       <c r="F31" t="n">
-        <v>81.03838336363263</v>
+        <v>81.03838336363259</v>
       </c>
       <c r="G31" t="n">
-        <v>64.25630175031573</v>
+        <v>64.25630175031571</v>
       </c>
       <c r="H31" t="n">
-        <v>55.01419636902197</v>
+        <v>55.01419636902199</v>
       </c>
       <c r="I31" t="n">
-        <v>55.01419636902197</v>
+        <v>55.01419636902199</v>
       </c>
       <c r="J31" t="n">
-        <v>127.3241431386065</v>
+        <v>55.01419636902199</v>
       </c>
       <c r="K31" t="n">
-        <v>279.717790185027</v>
+        <v>57.75827200691687</v>
       </c>
       <c r="L31" t="n">
-        <v>338.7556968523187</v>
+        <v>116.7961786742086</v>
       </c>
       <c r="M31" t="n">
-        <v>561.0415862106863</v>
+        <v>189.4324966240507</v>
       </c>
       <c r="N31" t="n">
-        <v>637.3853912916876</v>
+        <v>415.4258731135775</v>
       </c>
       <c r="O31" t="n">
-        <v>691.8849563724185</v>
+        <v>552.94414539073</v>
       </c>
       <c r="P31" t="n">
-        <v>725.7068275877434</v>
+        <v>725.706827587743</v>
       </c>
       <c r="Q31" t="n">
-        <v>807.9236386979659</v>
+        <v>807.9236386979655</v>
       </c>
       <c r="R31" t="n">
-        <v>791.3166120626707</v>
+        <v>791.3166120626704</v>
       </c>
       <c r="S31" t="n">
-        <v>721.5194181373068</v>
+        <v>721.5194181373065</v>
       </c>
       <c r="T31" t="n">
-        <v>644.8896377879196</v>
+        <v>644.8896377879192</v>
       </c>
       <c r="U31" t="n">
-        <v>508.3784361277807</v>
+        <v>508.3784361277804</v>
       </c>
       <c r="V31" t="n">
-        <v>406.3820118016261</v>
+        <v>406.3820118016258</v>
       </c>
       <c r="W31" t="n">
-        <v>269.6529056443977</v>
+        <v>269.6529056443975</v>
       </c>
       <c r="X31" t="n">
-        <v>194.3514186261126</v>
+        <v>194.3514186261125</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.2469033623148</v>
+        <v>126.2469033623146</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6680,40 @@
         <v>1204.7462916117</v>
       </c>
       <c r="D32" t="n">
-        <v>1005.514127993421</v>
+        <v>1005.51412799342</v>
       </c>
       <c r="E32" t="n">
-        <v>778.7594103836477</v>
+        <v>778.7594103836475</v>
       </c>
       <c r="F32" t="n">
-        <v>526.8070405825115</v>
+        <v>526.8070405825113</v>
       </c>
       <c r="G32" t="n">
         <v>266.8282134585975</v>
       </c>
       <c r="H32" t="n">
-        <v>87.92852472230092</v>
+        <v>87.92852472230095</v>
       </c>
       <c r="I32" t="n">
-        <v>53.07170521328553</v>
+        <v>53.07170521328554</v>
       </c>
       <c r="J32" t="n">
-        <v>86.32978014749028</v>
+        <v>86.32978014749091</v>
       </c>
       <c r="K32" t="n">
-        <v>405.7236186316175</v>
+        <v>405.723618631618</v>
       </c>
       <c r="L32" t="n">
-        <v>816.7363240713394</v>
+        <v>816.7363240713399</v>
       </c>
       <c r="M32" t="n">
-        <v>1273.108428959964</v>
+        <v>1273.108428959965</v>
       </c>
       <c r="N32" t="n">
         <v>1719.71099446599</v>
       </c>
       <c r="O32" t="n">
-        <v>2104.923805360465</v>
+        <v>2104.923805360466</v>
       </c>
       <c r="P32" t="n">
         <v>2418.858024948979</v>
@@ -6728,16 +6728,16 @@
         <v>2612.547383451009</v>
       </c>
       <c r="T32" t="n">
-        <v>2548.356206230264</v>
+        <v>2548.356206230265</v>
       </c>
       <c r="U32" t="n">
         <v>2453.544071535982</v>
       </c>
       <c r="V32" t="n">
-        <v>2281.514719180883</v>
+        <v>2281.514719180882</v>
       </c>
       <c r="W32" t="n">
-        <v>2087.77959889924</v>
+        <v>2087.779598899239</v>
       </c>
       <c r="X32" t="n">
         <v>1873.347375626631</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>820.702296043719</v>
+        <v>612.9523521236879</v>
       </c>
       <c r="C33" t="n">
-        <v>646.249266762592</v>
+        <v>472.1046805145389</v>
       </c>
       <c r="D33" t="n">
-        <v>497.3148571013408</v>
+        <v>323.1702708532877</v>
       </c>
       <c r="E33" t="n">
-        <v>338.0774020958853</v>
+        <v>163.9328158478322</v>
       </c>
       <c r="F33" t="n">
-        <v>191.5428441227702</v>
+        <v>163.9328158478322</v>
       </c>
       <c r="G33" t="n">
-        <v>53.07170521328553</v>
+        <v>163.9328158478322</v>
       </c>
       <c r="H33" t="n">
-        <v>53.07170521328553</v>
+        <v>53.07170521328554</v>
       </c>
       <c r="I33" t="n">
-        <v>53.07170521328553</v>
+        <v>53.07170521328554</v>
       </c>
       <c r="J33" t="n">
-        <v>76.37901978293146</v>
+        <v>76.37901978293148</v>
       </c>
       <c r="K33" t="n">
         <v>242.8357758317118</v>
@@ -6801,28 +6801,28 @@
         <v>1966.042074063114</v>
       </c>
       <c r="R33" t="n">
-        <v>1880.995887624022</v>
+        <v>1966.042074063114</v>
       </c>
       <c r="S33" t="n">
-        <v>1712.402106061338</v>
+        <v>1797.44829250043</v>
       </c>
       <c r="T33" t="n">
-        <v>1670.295765271557</v>
+        <v>1596.308416722178</v>
       </c>
       <c r="U33" t="n">
-        <v>1601.122766635095</v>
+        <v>1527.135418085716</v>
       </c>
       <c r="V33" t="n">
-        <v>1525.004193391824</v>
+        <v>1291.983309853973</v>
       </c>
       <c r="W33" t="n">
-        <v>1404.529432034274</v>
+        <v>1196.779488114243</v>
       </c>
       <c r="X33" t="n">
-        <v>1196.677931828741</v>
+        <v>988.9279879087098</v>
       </c>
       <c r="Y33" t="n">
-        <v>988.917633063787</v>
+        <v>781.167689143756</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.56814857568311</v>
+        <v>62.97435315272115</v>
       </c>
       <c r="C34" t="n">
-        <v>57.66550063624753</v>
+        <v>53.07170521328554</v>
       </c>
       <c r="D34" t="n">
-        <v>66.40494999041803</v>
+        <v>61.81115456745602</v>
       </c>
       <c r="E34" t="n">
-        <v>66.40494999041803</v>
+        <v>72.71029918955325</v>
       </c>
       <c r="F34" t="n">
-        <v>66.40494999041803</v>
+        <v>84.61222928905204</v>
       </c>
       <c r="G34" t="n">
-        <v>55.9683394858402</v>
+        <v>74.17561878447418</v>
       </c>
       <c r="H34" t="n">
-        <v>53.07170521328553</v>
+        <v>71.27898451191948</v>
       </c>
       <c r="I34" t="n">
-        <v>53.07170521328553</v>
+        <v>79.6686995333001</v>
       </c>
       <c r="J34" t="n">
-        <v>53.07170521328553</v>
+        <v>158.1978425365598</v>
       </c>
       <c r="K34" t="n">
-        <v>211.6845484933811</v>
+        <v>160.9419181744546</v>
       </c>
       <c r="L34" t="n">
-        <v>270.7224551606728</v>
+        <v>245.6046755740682</v>
       </c>
       <c r="M34" t="n">
-        <v>343.3587731105149</v>
+        <v>318.2409935239103</v>
       </c>
       <c r="N34" t="n">
-        <v>419.7025781915162</v>
+        <v>550.4535662471122</v>
       </c>
       <c r="O34" t="n">
-        <v>474.2021432722471</v>
+        <v>604.9531313278432</v>
       </c>
       <c r="P34" t="n">
-        <v>653.1840217029353</v>
+        <v>628.0662421163305</v>
       </c>
       <c r="Q34" t="n">
-        <v>721.09604488319</v>
+        <v>716.5022494602282</v>
       </c>
       <c r="R34" t="n">
-        <v>710.8344893566339</v>
+        <v>706.2406939336721</v>
       </c>
       <c r="S34" t="n">
-        <v>647.3827665400091</v>
+        <v>642.7889711170473</v>
       </c>
       <c r="T34" t="n">
-        <v>577.0984572993609</v>
+        <v>572.504661876399</v>
       </c>
       <c r="U34" t="n">
-        <v>446.9327267479612</v>
+        <v>442.3389313249993</v>
       </c>
       <c r="V34" t="n">
-        <v>351.2817735305456</v>
+        <v>346.6879781075837</v>
       </c>
       <c r="W34" t="n">
-        <v>220.8981384820563</v>
+        <v>216.3043430590944</v>
       </c>
       <c r="X34" t="n">
-        <v>151.9421225725102</v>
+        <v>147.3483271495484</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.18307841745148</v>
+        <v>85.58928299448955</v>
       </c>
     </row>
     <row r="35">
@@ -6920,28 +6920,28 @@
         <v>768.4262795329519</v>
       </c>
       <c r="E35" t="n">
-        <v>588.7214457600159</v>
+        <v>588.7214457600162</v>
       </c>
       <c r="F35" t="n">
-        <v>383.8189597957165</v>
+        <v>383.8189597957169</v>
       </c>
       <c r="G35" t="n">
-        <v>170.8900165086394</v>
+        <v>170.8900165086395</v>
       </c>
       <c r="H35" t="n">
-        <v>39.04021160918017</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="I35" t="n">
-        <v>50.99063395687803</v>
+        <v>50.99063395687798</v>
       </c>
       <c r="J35" t="n">
-        <v>79.53477398304416</v>
+        <v>281.5171327737286</v>
       </c>
       <c r="K35" t="n">
-        <v>445.0422036156552</v>
+        <v>445.042203615655</v>
       </c>
       <c r="L35" t="n">
-        <v>700.1861414131763</v>
+        <v>700.1861414131761</v>
       </c>
       <c r="M35" t="n">
         <v>1000.6894786596</v>
@@ -6953,16 +6953,16 @@
         <v>1520.7673197757</v>
       </c>
       <c r="P35" t="n">
-        <v>1880.815130512697</v>
+        <v>1678.832771722013</v>
       </c>
       <c r="Q35" t="n">
-        <v>1922.293942365005</v>
+        <v>1862.624965397975</v>
       </c>
       <c r="R35" t="n">
-        <v>1952.010580459008</v>
+        <v>1946.118212767248</v>
       </c>
       <c r="S35" t="n">
-        <v>1952.010580459008</v>
+        <v>1952.010580459009</v>
       </c>
       <c r="T35" t="n">
         <v>1934.869287075101</v>
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.0237737919049</v>
+        <v>668.199663530129</v>
       </c>
       <c r="C36" t="n">
-        <v>428.5707445107779</v>
+        <v>493.746634249002</v>
       </c>
       <c r="D36" t="n">
-        <v>279.6363348495266</v>
+        <v>344.8122245877507</v>
       </c>
       <c r="E36" t="n">
-        <v>120.3988798440711</v>
+        <v>185.5747695822952</v>
       </c>
       <c r="F36" t="n">
-        <v>120.3988798440711</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="G36" t="n">
-        <v>120.3988798440711</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="H36" t="n">
-        <v>120.3988798440711</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="I36" t="n">
-        <v>39.04021160918017</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="J36" t="n">
-        <v>62.34752617882612</v>
+        <v>62.34752617882623</v>
       </c>
       <c r="K36" t="n">
-        <v>228.8042822276064</v>
+        <v>228.8042822276066</v>
       </c>
       <c r="L36" t="n">
-        <v>514.0303290615863</v>
+        <v>514.0303290615864</v>
       </c>
       <c r="M36" t="n">
-        <v>898.8548941136493</v>
+        <v>898.8548941136495</v>
       </c>
       <c r="N36" t="n">
         <v>1309.571633708867</v>
@@ -7035,31 +7035,31 @@
         <v>1850.126927230727</v>
       </c>
       <c r="Q36" t="n">
-        <v>1952.010580459008</v>
+        <v>1952.010580459009</v>
       </c>
       <c r="R36" t="n">
-        <v>1952.010580459008</v>
+        <v>1952.010580459009</v>
       </c>
       <c r="S36" t="n">
-        <v>1952.010580459008</v>
+        <v>1783.416798896325</v>
       </c>
       <c r="T36" t="n">
-        <v>1904.446908367337</v>
+        <v>1582.276923118073</v>
       </c>
       <c r="U36" t="n">
-        <v>1676.240374742404</v>
+        <v>1560.153808318447</v>
       </c>
       <c r="V36" t="n">
-        <v>1441.088266510661</v>
+        <v>1506.264156248885</v>
       </c>
       <c r="W36" t="n">
-        <v>1186.85090978246</v>
+        <v>1252.026799520684</v>
       </c>
       <c r="X36" t="n">
-        <v>978.9994095769268</v>
+        <v>1044.175299315151</v>
       </c>
       <c r="Y36" t="n">
-        <v>771.239110811973</v>
+        <v>836.415000550197</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.04021160918017</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="C37" t="n">
-        <v>39.04021160918017</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="D37" t="n">
-        <v>39.04021160918017</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="E37" t="n">
-        <v>39.04021160918017</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="F37" t="n">
-        <v>39.04021160918017</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="G37" t="n">
-        <v>39.04021160918017</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="H37" t="n">
-        <v>39.04021160918017</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="I37" t="n">
-        <v>39.04021160918017</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="J37" t="n">
-        <v>39.04021160918017</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="K37" t="n">
-        <v>41.78428724707505</v>
+        <v>41.78428724707506</v>
       </c>
       <c r="L37" t="n">
         <v>100.8221939143668</v>
       </c>
       <c r="M37" t="n">
-        <v>173.4585118642088</v>
+        <v>173.4585118642089</v>
       </c>
       <c r="N37" t="n">
         <v>249.8023169452101</v>
@@ -7114,31 +7114,31 @@
         <v>327.4149928144284</v>
       </c>
       <c r="Q37" t="n">
-        <v>330.3424356905043</v>
+        <v>327.4149928144284</v>
       </c>
       <c r="R37" t="n">
-        <v>330.3424356905043</v>
+        <v>330.3424356905047</v>
       </c>
       <c r="S37" t="n">
-        <v>313.9405967107164</v>
+        <v>313.9405967107167</v>
       </c>
       <c r="T37" t="n">
-        <v>290.706171306905</v>
+        <v>290.7061713069053</v>
       </c>
       <c r="U37" t="n">
-        <v>207.5903245923422</v>
+        <v>207.5903245923425</v>
       </c>
       <c r="V37" t="n">
-        <v>158.9892552117636</v>
+        <v>158.9892552117637</v>
       </c>
       <c r="W37" t="n">
-        <v>75.65550400011116</v>
+        <v>75.65550400011128</v>
       </c>
       <c r="X37" t="n">
-        <v>53.74937192740204</v>
+        <v>53.74937192740211</v>
       </c>
       <c r="Y37" t="n">
-        <v>39.04021160918017</v>
+        <v>39.04021160918018</v>
       </c>
     </row>
     <row r="38">
@@ -7151,73 +7151,73 @@
         <v>1083.487657429498</v>
       </c>
       <c r="C38" t="n">
-        <v>920.6085593143941</v>
+        <v>920.6085593143946</v>
       </c>
       <c r="D38" t="n">
-        <v>768.4262795329519</v>
+        <v>768.4262795329523</v>
       </c>
       <c r="E38" t="n">
-        <v>588.7214457600159</v>
+        <v>588.7214457600162</v>
       </c>
       <c r="F38" t="n">
-        <v>383.8189597957165</v>
+        <v>383.8189597957169</v>
       </c>
       <c r="G38" t="n">
-        <v>170.8900165086394</v>
+        <v>170.8900165086395</v>
       </c>
       <c r="H38" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="I38" t="n">
-        <v>50.99063395687801</v>
+        <v>50.99063395687798</v>
       </c>
       <c r="J38" t="n">
-        <v>79.53477398304415</v>
+        <v>221.8481558066988</v>
       </c>
       <c r="K38" t="n">
-        <v>243.0598448249706</v>
+        <v>385.3732266486252</v>
       </c>
       <c r="L38" t="n">
-        <v>498.2037826224916</v>
+        <v>640.5171644461464</v>
       </c>
       <c r="M38" t="n">
-        <v>941.0205016925695</v>
+        <v>941.0205016925704</v>
       </c>
       <c r="N38" t="n">
-        <v>1231.754299556394</v>
+        <v>1231.754299556395</v>
       </c>
       <c r="O38" t="n">
-        <v>1461.098342808669</v>
+        <v>1461.09834280867</v>
       </c>
       <c r="P38" t="n">
-        <v>1619.163794754982</v>
+        <v>1619.163794754983</v>
       </c>
       <c r="Q38" t="n">
-        <v>1862.624965397974</v>
+        <v>1862.624965397975</v>
       </c>
       <c r="R38" t="n">
         <v>1946.118212767248</v>
       </c>
       <c r="S38" t="n">
-        <v>1952.010580459008</v>
+        <v>1952.010580459009</v>
       </c>
       <c r="T38" t="n">
-        <v>1934.8692870751</v>
+        <v>1934.869287075101</v>
       </c>
       <c r="U38" t="n">
-        <v>1887.107036217654</v>
+        <v>1887.107036217655</v>
       </c>
       <c r="V38" t="n">
-        <v>1762.127567699392</v>
+        <v>1762.127567699393</v>
       </c>
       <c r="W38" t="n">
-        <v>1615.442331254586</v>
+        <v>1615.442331254587</v>
       </c>
       <c r="X38" t="n">
         <v>1448.059991818815</v>
       </c>
       <c r="Y38" t="n">
-        <v>1264.004078668311</v>
+        <v>1264.004078668312</v>
       </c>
     </row>
     <row r="39">
@@ -7233,10 +7233,10 @@
         <v>575.105302483893</v>
       </c>
       <c r="D39" t="n">
-        <v>426.1708928226416</v>
+        <v>426.1708928226417</v>
       </c>
       <c r="E39" t="n">
-        <v>266.9334378171861</v>
+        <v>266.9334378171862</v>
       </c>
       <c r="F39" t="n">
         <v>120.3988798440711</v>
@@ -7248,55 +7248,55 @@
         <v>120.3988798440711</v>
       </c>
       <c r="I39" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="J39" t="n">
-        <v>62.34752617882609</v>
+        <v>62.34752617882623</v>
       </c>
       <c r="K39" t="n">
-        <v>228.8042822276064</v>
+        <v>228.8042822276066</v>
       </c>
       <c r="L39" t="n">
-        <v>514.0303290615864</v>
+        <v>514.0303290615866</v>
       </c>
       <c r="M39" t="n">
-        <v>898.8548941136494</v>
+        <v>898.8548941136496</v>
       </c>
       <c r="N39" t="n">
         <v>1309.571633708867</v>
       </c>
       <c r="O39" t="n">
-        <v>1618.881532159308</v>
+        <v>1618.881532159309</v>
       </c>
       <c r="P39" t="n">
         <v>1850.126927230727</v>
       </c>
       <c r="Q39" t="n">
-        <v>1952.010580459008</v>
+        <v>1952.010580459009</v>
       </c>
       <c r="R39" t="n">
-        <v>1952.010580459008</v>
+        <v>1866.964394019917</v>
       </c>
       <c r="S39" t="n">
-        <v>1952.010580459008</v>
+        <v>1698.370612457233</v>
       </c>
       <c r="T39" t="n">
-        <v>1750.870704680756</v>
+        <v>1698.370612457233</v>
       </c>
       <c r="U39" t="n">
-        <v>1654.559595695451</v>
+        <v>1676.247497657607</v>
       </c>
       <c r="V39" t="n">
-        <v>1419.407487463708</v>
+        <v>1587.622824483776</v>
       </c>
       <c r="W39" t="n">
-        <v>1165.170130735507</v>
+        <v>1333.385467755575</v>
       </c>
       <c r="X39" t="n">
-        <v>957.3186305299739</v>
+        <v>1125.533967550042</v>
       </c>
       <c r="Y39" t="n">
-        <v>749.5583317650199</v>
+        <v>917.7736687850879</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="C40" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="D40" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="E40" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="F40" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="G40" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="H40" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="I40" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="J40" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="K40" t="n">
-        <v>41.78428724707504</v>
+        <v>41.78428724707506</v>
       </c>
       <c r="L40" t="n">
-        <v>100.8221939143667</v>
+        <v>100.8221939143668</v>
       </c>
       <c r="M40" t="n">
-        <v>173.4585118642088</v>
+        <v>173.4585118642089</v>
       </c>
       <c r="N40" t="n">
         <v>249.8023169452101</v>
@@ -7351,31 +7351,31 @@
         <v>327.4149928144284</v>
       </c>
       <c r="Q40" t="n">
-        <v>330.3424356905042</v>
+        <v>327.4149928144284</v>
       </c>
       <c r="R40" t="n">
-        <v>330.3424356905042</v>
+        <v>330.3424356905047</v>
       </c>
       <c r="S40" t="n">
-        <v>313.9405967107163</v>
+        <v>313.9405967107167</v>
       </c>
       <c r="T40" t="n">
-        <v>290.706171306905</v>
+        <v>290.7061713069053</v>
       </c>
       <c r="U40" t="n">
-        <v>207.5903245923422</v>
+        <v>207.5903245923425</v>
       </c>
       <c r="V40" t="n">
-        <v>158.9892552117635</v>
+        <v>158.9892552117637</v>
       </c>
       <c r="W40" t="n">
-        <v>75.65550400011114</v>
+        <v>75.65550400011128</v>
       </c>
       <c r="X40" t="n">
-        <v>53.74937192740203</v>
+        <v>53.74937192740211</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918018</v>
       </c>
     </row>
     <row r="41">
@@ -7385,64 +7385,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1083.487657429498</v>
+        <v>1083.487657429499</v>
       </c>
       <c r="C41" t="n">
-        <v>920.6085593143944</v>
+        <v>920.6085593143951</v>
       </c>
       <c r="D41" t="n">
-        <v>768.426279532952</v>
+        <v>768.4262795329528</v>
       </c>
       <c r="E41" t="n">
-        <v>588.7214457600159</v>
+        <v>588.7214457600168</v>
       </c>
       <c r="F41" t="n">
-        <v>383.8189597957164</v>
+        <v>383.8189597957175</v>
       </c>
       <c r="G41" t="n">
-        <v>170.8900165086395</v>
+        <v>170.8900165086394</v>
       </c>
       <c r="H41" t="n">
-        <v>39.04021160918017</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="I41" t="n">
-        <v>50.99063395687794</v>
+        <v>50.99063395687801</v>
       </c>
       <c r="J41" t="n">
-        <v>281.5171327737286</v>
+        <v>79.53477398304415</v>
       </c>
       <c r="K41" t="n">
-        <v>587.3555854393096</v>
+        <v>243.0598448249706</v>
       </c>
       <c r="L41" t="n">
-        <v>842.4995232368308</v>
+        <v>498.2037826224916</v>
       </c>
       <c r="M41" t="n">
-        <v>1143.002860483255</v>
+        <v>798.7071198689157</v>
       </c>
       <c r="N41" t="n">
-        <v>1433.73665834708</v>
+        <v>1089.44091773274</v>
       </c>
       <c r="O41" t="n">
-        <v>1663.080701599355</v>
+        <v>1318.784960985015</v>
       </c>
       <c r="P41" t="n">
-        <v>1821.146153545667</v>
+        <v>1619.163794754983</v>
       </c>
       <c r="Q41" t="n">
-        <v>1862.624965397974</v>
+        <v>1862.624965397975</v>
       </c>
       <c r="R41" t="n">
-        <v>1946.118212767248</v>
+        <v>1946.118212767249</v>
       </c>
       <c r="S41" t="n">
-        <v>1952.010580459008</v>
+        <v>1952.010580459009</v>
       </c>
       <c r="T41" t="n">
-        <v>1934.869287075101</v>
+        <v>1934.869287075102</v>
       </c>
       <c r="U41" t="n">
-        <v>1887.107036217655</v>
+        <v>1887.107036217656</v>
       </c>
       <c r="V41" t="n">
         <v>1762.127567699393</v>
@@ -7451,10 +7451,10 @@
         <v>1615.442331254587</v>
       </c>
       <c r="X41" t="n">
-        <v>1448.059991818815</v>
+        <v>1448.059991818816</v>
       </c>
       <c r="Y41" t="n">
-        <v>1264.004078668311</v>
+        <v>1264.004078668312</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>749.5583317650199</v>
+        <v>856.6708647088842</v>
       </c>
       <c r="C42" t="n">
-        <v>575.105302483893</v>
+        <v>682.2178354277572</v>
       </c>
       <c r="D42" t="n">
-        <v>426.1708928226416</v>
+        <v>533.283425766506</v>
       </c>
       <c r="E42" t="n">
-        <v>266.9334378171861</v>
+        <v>374.0459707610505</v>
       </c>
       <c r="F42" t="n">
-        <v>120.3988798440711</v>
+        <v>227.5114127879354</v>
       </c>
       <c r="G42" t="n">
-        <v>120.3988798440711</v>
+        <v>89.04027387845071</v>
       </c>
       <c r="H42" t="n">
-        <v>120.3988798440711</v>
+        <v>89.04027387845071</v>
       </c>
       <c r="I42" t="n">
-        <v>39.04021160918017</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="J42" t="n">
-        <v>62.3475261788261</v>
+        <v>62.34752617882612</v>
       </c>
       <c r="K42" t="n">
         <v>228.8042822276064</v>
@@ -7512,28 +7512,28 @@
         <v>1952.010580459008</v>
       </c>
       <c r="R42" t="n">
-        <v>1866.964394019917</v>
+        <v>1952.010580459008</v>
       </c>
       <c r="S42" t="n">
-        <v>1698.370612457232</v>
+        <v>1952.010580459008</v>
       </c>
       <c r="T42" t="n">
-        <v>1698.370612457232</v>
+        <v>1952.010580459008</v>
       </c>
       <c r="U42" t="n">
-        <v>1616.691513890211</v>
+        <v>1929.887465659383</v>
       </c>
       <c r="V42" t="n">
-        <v>1381.539405658468</v>
+        <v>1694.735357427641</v>
       </c>
       <c r="W42" t="n">
-        <v>1127.302048930267</v>
+        <v>1440.498000699439</v>
       </c>
       <c r="X42" t="n">
-        <v>919.4505487247337</v>
+        <v>1232.646500493906</v>
       </c>
       <c r="Y42" t="n">
-        <v>917.7736687850879</v>
+        <v>1024.886201728952</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.96765448525665</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="C43" t="n">
-        <v>41.96765448525665</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="D43" t="n">
-        <v>41.96765448525665</v>
+        <v>41.9676544852562</v>
       </c>
       <c r="E43" t="n">
-        <v>41.96765448525665</v>
+        <v>41.9676544852562</v>
       </c>
       <c r="F43" t="n">
-        <v>41.96765448525665</v>
+        <v>41.9676544852562</v>
       </c>
       <c r="G43" t="n">
-        <v>41.96765448525665</v>
+        <v>41.9676544852562</v>
       </c>
       <c r="H43" t="n">
-        <v>41.96765448525665</v>
+        <v>41.9676544852562</v>
       </c>
       <c r="I43" t="n">
-        <v>41.96765448525665</v>
+        <v>41.9676544852562</v>
       </c>
       <c r="J43" t="n">
-        <v>41.96765448525665</v>
+        <v>41.9676544852562</v>
       </c>
       <c r="K43" t="n">
-        <v>44.71173012315153</v>
+        <v>44.71173012315108</v>
       </c>
       <c r="L43" t="n">
-        <v>103.7496367904432</v>
+        <v>103.7496367904428</v>
       </c>
       <c r="M43" t="n">
-        <v>176.3859547402853</v>
+        <v>176.3859547402849</v>
       </c>
       <c r="N43" t="n">
-        <v>252.7297598212866</v>
+        <v>252.7297598212861</v>
       </c>
       <c r="O43" t="n">
-        <v>307.2293249020175</v>
+        <v>307.229324902017</v>
       </c>
       <c r="P43" t="n">
-        <v>330.3424356905049</v>
+        <v>330.3424356905044</v>
       </c>
       <c r="Q43" t="n">
-        <v>330.3424356905049</v>
+        <v>330.3424356905044</v>
       </c>
       <c r="R43" t="n">
-        <v>330.3424356905049</v>
+        <v>330.3424356905044</v>
       </c>
       <c r="S43" t="n">
-        <v>313.9405967107169</v>
+        <v>313.9405967107165</v>
       </c>
       <c r="T43" t="n">
-        <v>290.7061713069055</v>
+        <v>290.7061713069052</v>
       </c>
       <c r="U43" t="n">
-        <v>207.5903245923425</v>
+        <v>207.5903245923423</v>
       </c>
       <c r="V43" t="n">
-        <v>158.9892552117638</v>
+        <v>158.9892552117636</v>
       </c>
       <c r="W43" t="n">
-        <v>75.65550400011134</v>
+        <v>75.65550400011122</v>
       </c>
       <c r="X43" t="n">
-        <v>53.74937192740213</v>
+        <v>53.74937192740209</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.04021160918017</v>
+        <v>39.04021160918018</v>
       </c>
     </row>
     <row r="44">
@@ -7646,7 +7646,7 @@
         <v>50.99063395687801</v>
       </c>
       <c r="J44" t="n">
-        <v>281.5171327737287</v>
+        <v>79.53477398304415</v>
       </c>
       <c r="K44" t="n">
         <v>445.0422036156551</v>
@@ -7658,13 +7658,13 @@
         <v>1000.6894786596</v>
       </c>
       <c r="N44" t="n">
-        <v>1291.423276523425</v>
+        <v>1433.73665834708</v>
       </c>
       <c r="O44" t="n">
-        <v>1520.7673197757</v>
+        <v>1663.080701599355</v>
       </c>
       <c r="P44" t="n">
-        <v>1678.832771722013</v>
+        <v>1821.146153545667</v>
       </c>
       <c r="Q44" t="n">
         <v>1862.624965397975</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>998.8905813090513</v>
+        <v>521.6651055570139</v>
       </c>
       <c r="C45" t="n">
-        <v>824.4375520279243</v>
+        <v>347.2120762758869</v>
       </c>
       <c r="D45" t="n">
-        <v>675.503142366673</v>
+        <v>198.2776666146357</v>
       </c>
       <c r="E45" t="n">
-        <v>516.2656873612175</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="F45" t="n">
-        <v>369.7311293881024</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="G45" t="n">
-        <v>231.2599904786177</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="H45" t="n">
-        <v>120.3988798440711</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="I45" t="n">
         <v>39.04021160918018</v>
@@ -7752,25 +7752,25 @@
         <v>1952.010580459009</v>
       </c>
       <c r="S45" t="n">
-        <v>1783.416798896325</v>
+        <v>1818.14469708539</v>
       </c>
       <c r="T45" t="n">
-        <v>1582.276923118073</v>
+        <v>1617.004821307138</v>
       </c>
       <c r="U45" t="n">
-        <v>1354.070389493139</v>
+        <v>1388.798287682205</v>
       </c>
       <c r="V45" t="n">
-        <v>1118.918281261396</v>
+        <v>1153.646179450462</v>
       </c>
       <c r="W45" t="n">
-        <v>1002.335542628922</v>
+        <v>899.4088227222605</v>
       </c>
       <c r="X45" t="n">
-        <v>1000.567461248697</v>
+        <v>897.6407413420359</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.8905813090513</v>
+        <v>689.880442577082</v>
       </c>
     </row>
     <row r="46">
@@ -7795,10 +7795,10 @@
         <v>39.04021160918018</v>
       </c>
       <c r="G46" t="n">
-        <v>41.9676544852562</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="H46" t="n">
-        <v>41.9676544852562</v>
+        <v>39.04021160918018</v>
       </c>
       <c r="I46" t="n">
         <v>41.9676544852562</v>
@@ -7979,16 +7979,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>250.4508600602684</v>
       </c>
       <c r="M2" t="n">
-        <v>245.0306783175538</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>245.4009489368218</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N3" t="n">
         <v>146.0261571736144</v>
       </c>
       <c r="O3" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.2845116011566</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>234.7742961352617</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>251.0691524851223</v>
+        <v>250.4508600602684</v>
       </c>
       <c r="M5" t="n">
-        <v>245.6489707424078</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
         <v>244.715801111726</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>153.144176489494</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>157.4367714371534</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P6" t="n">
         <v>149.2771449294653</v>
@@ -8456,19 +8456,19 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
         <v>267.3975919943167</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1382567417148</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M9" t="n">
-        <v>180.1185623197441</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O9" t="n">
         <v>182.180121406285</v>
@@ -8769,7 +8769,7 @@
         <v>102.5482933508675</v>
       </c>
       <c r="K12" t="n">
-        <v>96.32709958956816</v>
+        <v>170.0562431904235</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,13 +8778,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>298.5621240046945</v>
+        <v>458.4141875466876</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>84.8815614970903</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>111.0520805673808</v>
       </c>
       <c r="K15" t="n">
-        <v>96.32709958956816</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>282.3102582184657</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>458.4141875466872</v>
+        <v>458.4141875466876</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>84.8815614970903</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>107.1645066971807</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>102.5482933508675</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>96.32709958956816</v>
@@ -9252,10 +9252,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>458.4141875466872</v>
+        <v>377.932163053823</v>
       </c>
       <c r="O18" t="n">
-        <v>336.923036773405</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,7 +9480,7 @@
         <v>102.5482933508675</v>
       </c>
       <c r="K21" t="n">
-        <v>96.32709958956816</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,13 +9489,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>458.4141875466872</v>
+        <v>458.4141875466875</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>261.5234861366127</v>
+        <v>93.38534871360348</v>
       </c>
       <c r="Q21" t="n">
         <v>107.1645066971807</v>
@@ -9720,19 +9720,19 @@
         <v>96.32709958956816</v>
       </c>
       <c r="L24" t="n">
-        <v>313.9010628001347</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>458.4141875466872</v>
+        <v>458.4141875466875</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>261.5234861366139</v>
       </c>
       <c r="Q24" t="n">
         <v>107.1645066971807</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358484</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>256.622830363512</v>
+        <v>256.6228303635119</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>228.5720303207143</v>
       </c>
       <c r="E11" t="n">
-        <v>198.5608466947275</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>280.7650344417428</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>208.4428801875511</v>
+        <v>15.50810433915308</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.8404396525432</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>125.196201685958</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>201.6412471701663</v>
       </c>
       <c r="W11" t="n">
         <v>223.1299574174444</v>
@@ -23324,7 +23324,7 @@
         <v>243.6200893785004</v>
       </c>
       <c r="Y11" t="n">
-        <v>260.1269273560849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23498,22 +23498,22 @@
         <v>239.161880471039</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>228.5720303207144</v>
       </c>
       <c r="E14" t="n">
-        <v>210.4786747369431</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>288.7112271912927</v>
+        <v>146.8929481064611</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.84043965254322</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.95968677975291</v>
+        <v>71.95968677975287</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>94.88145378715525</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>201.6412471701663</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>223.1299574174444</v>
       </c>
       <c r="X14" t="n">
-        <v>243.6200893785005</v>
+        <v>243.6200893785004</v>
       </c>
       <c r="Y14" t="n">
-        <v>260.126927356085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.394884621840902e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>883088.6025046945</v>
+        <v>883088.6025046947</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>883088.6025046944</v>
+        <v>883088.6025046947</v>
       </c>
     </row>
     <row r="7">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>402725.4408887193</v>
+        <v>402725.4408887191</v>
       </c>
       <c r="F2" t="n">
-        <v>402725.4408887191</v>
+        <v>402725.4408887192</v>
       </c>
       <c r="G2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="H2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="I2" t="n">
         <v>472099.017671963</v>
@@ -26338,22 +26338,22 @@
         <v>472099.0176719626</v>
       </c>
       <c r="K2" t="n">
-        <v>472099.0176719625</v>
+        <v>472099.0176719626</v>
       </c>
       <c r="L2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="M2" t="n">
-        <v>472099.0176719622</v>
+        <v>472099.0176719623</v>
       </c>
       <c r="N2" t="n">
-        <v>472099.0176719624</v>
+        <v>472099.0176719623</v>
       </c>
       <c r="O2" t="n">
         <v>472099.0176719623</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.0176719622</v>
+        <v>472099.0176719623</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>7542.450346330141</v>
       </c>
       <c r="E3" t="n">
-        <v>302716.9639093049</v>
+        <v>302716.963909305</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>85534.54352428853</v>
+        <v>85534.54352428838</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>116253.6459389536</v>
+        <v>116253.6459389537</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>90560.15664240989</v>
+        <v>90560.15664240968</v>
       </c>
       <c r="M3" t="n">
-        <v>81860.97103976188</v>
+        <v>81860.97103976195</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35394.40306845938</v>
+        <v>35394.4030684596</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>380140.4134050103</v>
       </c>
       <c r="C4" t="n">
-        <v>380140.4134050103</v>
+        <v>380140.4134050104</v>
       </c>
       <c r="D4" t="n">
         <v>374998.9002986324</v>
@@ -26433,28 +26433,28 @@
         <v>293497.8305223941</v>
       </c>
       <c r="H4" t="n">
+        <v>293497.8305223941</v>
+      </c>
+      <c r="I4" t="n">
         <v>293497.830522394</v>
-      </c>
-      <c r="I4" t="n">
-        <v>293497.8305223941</v>
       </c>
       <c r="J4" t="n">
         <v>288786.0486669306</v>
       </c>
       <c r="K4" t="n">
-        <v>288786.0486669305</v>
+        <v>288786.0486669306</v>
       </c>
       <c r="L4" t="n">
         <v>288663.9082929196</v>
       </c>
       <c r="M4" t="n">
+        <v>287832.9329912871</v>
+      </c>
+      <c r="N4" t="n">
+        <v>287832.9329912871</v>
+      </c>
+      <c r="O4" t="n">
         <v>287832.9329912872</v>
-      </c>
-      <c r="N4" t="n">
-        <v>287832.9329912872</v>
-      </c>
-      <c r="O4" t="n">
-        <v>287832.9329912871</v>
       </c>
       <c r="P4" t="n">
         <v>287832.9329912872</v>
@@ -26476,13 +26476,13 @@
         <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>37159.03486009491</v>
+        <v>37159.03486009493</v>
       </c>
       <c r="F5" t="n">
-        <v>37159.03486009491</v>
+        <v>37159.03486009493</v>
       </c>
       <c r="G5" t="n">
-        <v>46147.53928452417</v>
+        <v>46147.53928452418</v>
       </c>
       <c r="H5" t="n">
         <v>46147.53928452417</v>
@@ -26494,7 +26494,7 @@
         <v>57124.38483605043</v>
       </c>
       <c r="K5" t="n">
-        <v>57124.38483605042</v>
+        <v>57124.38483605043</v>
       </c>
       <c r="L5" t="n">
         <v>56176.21439422491</v>
@@ -26503,10 +26503,10 @@
         <v>49428.16157254108</v>
       </c>
       <c r="N5" t="n">
-        <v>49428.16157254107</v>
+        <v>49428.16157254108</v>
       </c>
       <c r="O5" t="n">
-        <v>49428.16157254107</v>
+        <v>49428.16157254109</v>
       </c>
       <c r="P5" t="n">
         <v>49428.16157254108</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52272.29852174766</v>
+        <v>52272.29852174772</v>
       </c>
       <c r="C6" t="n">
-        <v>57400.59782603246</v>
+        <v>57400.59782603234</v>
       </c>
       <c r="D6" t="n">
-        <v>53523.36730772055</v>
+        <v>53523.3673077206</v>
       </c>
       <c r="E6" t="n">
-        <v>-162051.7260848836</v>
+        <v>-162353.3503317678</v>
       </c>
       <c r="F6" t="n">
-        <v>140665.237824421</v>
+        <v>140363.6135775375</v>
       </c>
       <c r="G6" t="n">
-        <v>46919.10434075606</v>
+        <v>46919.10434075629</v>
       </c>
       <c r="H6" t="n">
-        <v>132453.6478650447</v>
+        <v>132453.6478650445</v>
       </c>
       <c r="I6" t="n">
         <v>132453.6478650448</v>
       </c>
       <c r="J6" t="n">
-        <v>9934.938230027983</v>
+        <v>9934.938230027808</v>
       </c>
       <c r="K6" t="n">
         <v>126188.5841689816</v>
       </c>
       <c r="L6" t="n">
-        <v>36698.73834240811</v>
+        <v>36698.73834240851</v>
       </c>
       <c r="M6" t="n">
-        <v>52976.95206837208</v>
+        <v>52976.95206837213</v>
       </c>
       <c r="N6" t="n">
-        <v>134837.9231081341</v>
+        <v>134837.9231081342</v>
       </c>
       <c r="O6" t="n">
-        <v>99443.52003967474</v>
+        <v>99443.52003967445</v>
       </c>
       <c r="P6" t="n">
-        <v>134837.9231081339</v>
+        <v>134837.923108134</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>126.1110112999686</v>
       </c>
       <c r="G2" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="H2" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="I2" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="J2" t="n">
         <v>151.1611832409349</v>
@@ -26722,7 +26722,7 @@
         <v>204.0225846370551</v>
       </c>
       <c r="O2" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="P2" t="n">
         <v>204.0225846370551</v>
@@ -26796,37 +26796,37 @@
         <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>393.937206733656</v>
+        <v>393.9372067336564</v>
       </c>
       <c r="F4" t="n">
-        <v>393.937206733656</v>
+        <v>393.9372067336564</v>
       </c>
       <c r="G4" t="n">
-        <v>393.937206733656</v>
+        <v>393.9372067336564</v>
       </c>
       <c r="H4" t="n">
-        <v>393.937206733656</v>
+        <v>393.9372067336563</v>
       </c>
       <c r="I4" t="n">
-        <v>393.937206733656</v>
+        <v>393.9372067336563</v>
       </c>
       <c r="J4" t="n">
         <v>687.6774546127749</v>
       </c>
       <c r="K4" t="n">
-        <v>687.6774546127747</v>
+        <v>687.6774546127748</v>
       </c>
       <c r="L4" t="n">
-        <v>663.3963151660691</v>
+        <v>663.3963151660693</v>
       </c>
       <c r="M4" t="n">
-        <v>488.0026451147521</v>
+        <v>488.0026451147522</v>
       </c>
       <c r="N4" t="n">
-        <v>488.0026451147519</v>
+        <v>488.0026451147522</v>
       </c>
       <c r="O4" t="n">
-        <v>488.0026451147521</v>
+        <v>488.0026451147523</v>
       </c>
       <c r="P4" t="n">
         <v>488.0026451147522</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>106.9181794053607</v>
+        <v>106.9181794053605</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.24300383557431</v>
+        <v>44.24300383557447</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>113.2001958030123</v>
+        <v>113.2001958030121</v>
       </c>
       <c r="M2" t="n">
-        <v>46.57938499846853</v>
+        <v>46.5793849984685</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.24300383557423</v>
+        <v>44.2430038355745</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>24.28113944670554</v>
       </c>
       <c r="E4" t="n">
-        <v>354.3533297718154</v>
+        <v>354.3533297718158</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>309.042985394254</v>
+        <v>309.0429853942537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>178.9596597204983</v>
+        <v>178.9596597204987</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>106.9181794053607</v>
+        <v>106.9181794053605</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.24300383557431</v>
+        <v>44.24300383557447</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>24.28113944670554</v>
       </c>
       <c r="M4" t="n">
-        <v>354.3533297718154</v>
+        <v>354.3533297718158</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>366.6276325571267</v>
+        <v>375.0889699229531</v>
       </c>
       <c r="F2" t="n">
-        <v>393.3973945383805</v>
+        <v>391.5733082265764</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,10 +27397,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>195.1731520552709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>159.9764391112427</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>132.1423280495037</v>
       </c>
       <c r="E3" t="n">
         <v>142.3423429402659</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>129.7664748782488</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>99.50338435942338</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>164.5292426668022</v>
       </c>
       <c r="C4" t="n">
-        <v>151.9440835834928</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>133.3127355030773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>131.1312251314341</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>134.6638375547068</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27555,10 +27555,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>140.1477374121232</v>
       </c>
       <c r="J4" t="n">
-        <v>78.05644260153773</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>207.8274428838704</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,10 +27634,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>195.2077976476736</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>207.7931120489963</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>247.8577009190504</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27698,19 +27698,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>132.1423280495037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>142.3423429402659</v>
       </c>
       <c r="F6" t="n">
-        <v>129.7664748782488</v>
+        <v>132.3371525163108</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>99.50338435942338</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27749,7 +27749,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169.0747697137129</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>131.1312251314341</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>130.1183105077962</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>157.2337688902343</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>271.220260821456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>210.4069178739021</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>203.2819158369597</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>367.2921687798708</v>
+        <v>393.9505554828796</v>
       </c>
       <c r="G8" t="n">
-        <v>392.3865480417584</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27935,22 +27935,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>113.3261780629074</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F9" t="n">
-        <v>110.9503248916526</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G9" t="n">
         <v>97.75964020137005</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,31 +28050,31 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>214.039045675708</v>
       </c>
       <c r="T10" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X10" t="n">
-        <v>201.1391586269216</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28123,19 +28123,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>71.24693919557166</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>77.67197936280346</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>126.1110112999686</v>
+        <v>119.6859711327381</v>
       </c>
       <c r="S11" t="n">
         <v>126.1110112999686</v>
@@ -28169,10 +28169,10 @@
         <v>126.1110112999686</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>126.1110112999686</v>
       </c>
       <c r="D12" t="n">
-        <v>126.1110112999686</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>126.1110112999686</v>
@@ -28181,10 +28181,10 @@
         <v>126.1110112999686</v>
       </c>
       <c r="G12" t="n">
-        <v>126.1110112999686</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.7524995282011</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>80.54508155254206</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>84.1957245747009</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>2.830917927581595</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>126.1110112999686</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>126.1110112999686</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>70.66813073051327</v>
       </c>
       <c r="X12" t="n">
         <v>126.1110112999686</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>126.1110112999686</v>
       </c>
     </row>
     <row r="13">
@@ -28348,7 +28348,7 @@
         <v>126.1110112999686</v>
       </c>
       <c r="J14" t="n">
-        <v>71.24693919557166</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28369,10 +28369,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>77.67197936280354</v>
       </c>
       <c r="R14" t="n">
-        <v>126.1110112999686</v>
+        <v>119.6859711327381</v>
       </c>
       <c r="S14" t="n">
         <v>126.1110112999686</v>
@@ -28412,10 +28412,10 @@
         <v>126.1110112999686</v>
       </c>
       <c r="E15" t="n">
-        <v>126.1110112999686</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>126.1110112999686</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>126.1110112999686</v>
@@ -28424,7 +28424,7 @@
         <v>109.7524995282011</v>
       </c>
       <c r="I15" t="n">
-        <v>80.54508155254206</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>84.1957245747009</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>126.1110112999686</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>126.1110112999686</v>
       </c>
-      <c r="U15" t="n">
-        <v>2.830917927581964</v>
-      </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>126.1110112999686</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>126.1110112999686</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>41.46071275485463</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>126.1110112999686</v>
       </c>
     </row>
     <row r="16">
@@ -28512,7 +28512,7 @@
         <v>126.1110112999686</v>
       </c>
       <c r="L16" t="n">
-        <v>126.1110112999702</v>
+        <v>126.1110112999686</v>
       </c>
       <c r="M16" t="n">
         <v>126.1110112999686</v>
@@ -28524,7 +28524,7 @@
         <v>126.1110112999686</v>
       </c>
       <c r="P16" t="n">
-        <v>126.1110112999686</v>
+        <v>126.1110112999694</v>
       </c>
       <c r="Q16" t="n">
         <v>126.1110112999686</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="C17" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="D17" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="E17" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="F17" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="G17" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="H17" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="I17" t="n">
-        <v>233.0291907053292</v>
+        <v>222.6282120715028</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>119.6859711327381</v>
       </c>
       <c r="S17" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="T17" t="n">
-        <v>222.6282120715006</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="U17" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="V17" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="W17" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="X17" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="Y17" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
     </row>
     <row r="18">
@@ -28646,16 +28646,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0864275203899</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28697,10 +28697,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.924468288684</v>
       </c>
       <c r="V18" t="n">
-        <v>161.5052654055433</v>
+        <v>143.4807229119304</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28767,7 +28767,7 @@
         <v>68.1138992912152</v>
       </c>
       <c r="R19" t="n">
-        <v>7.991448645585024</v>
+        <v>167.6021396098771</v>
       </c>
       <c r="S19" t="n">
         <v>220.2604052270451</v>
@@ -28776,19 +28776,19 @@
         <v>227.0246657868283</v>
       </c>
       <c r="U19" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="V19" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="W19" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>58.97396238780311</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="C20" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="D20" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="E20" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="F20" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="G20" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="H20" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="I20" t="n">
-        <v>191.9514509525118</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>185.3212248773346</v>
+        <v>119.6859711327381</v>
       </c>
       <c r="S20" t="n">
-        <v>198.0706980797215</v>
+        <v>222.6282120715025</v>
       </c>
       <c r="T20" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="U20" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="V20" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="W20" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="X20" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
     </row>
     <row r="21">
@@ -28895,10 +28895,10 @@
         <v>137.0864275203899</v>
       </c>
       <c r="H21" t="n">
-        <v>109.7524995282011</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.54508155254206</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28934,19 +28934,19 @@
         <v>199.1284770204695</v>
       </c>
       <c r="U21" t="n">
-        <v>225.924468288684</v>
+        <v>161.3271488394051</v>
       </c>
       <c r="V21" t="n">
-        <v>156.5607804507612</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -29004,22 +29004,22 @@
         <v>68.1138992912152</v>
       </c>
       <c r="R22" t="n">
-        <v>7.991448645585024</v>
+        <v>167.6021396098771</v>
       </c>
       <c r="S22" t="n">
         <v>220.2604052270451</v>
       </c>
       <c r="T22" t="n">
-        <v>227.0246657868283</v>
+        <v>67.41397482253666</v>
       </c>
       <c r="U22" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="V22" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="W22" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="C23" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="D23" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="E23" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="F23" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="G23" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="H23" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="I23" t="n">
-        <v>233.0291907053292</v>
+        <v>222.6282120715023</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>144.2434851245171</v>
+        <v>119.6859711327381</v>
       </c>
       <c r="S23" t="n">
-        <v>198.0706980797215</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="T23" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="U23" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="V23" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="W23" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="X23" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>109.7524995282011</v>
       </c>
       <c r="I24" t="n">
-        <v>80.54508155254206</v>
+        <v>4.305274853876796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.95591787603685</v>
+        <v>84.1957245747009</v>
       </c>
       <c r="S24" t="n">
         <v>166.9078437470573</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>88.33518850886085</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -29238,25 +29238,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.1138992912152</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>167.6021396098771</v>
       </c>
       <c r="S25" t="n">
-        <v>60.64971426275304</v>
+        <v>220.2604052270451</v>
       </c>
       <c r="T25" t="n">
         <v>227.0246657868283</v>
       </c>
       <c r="U25" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="V25" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="W25" t="n">
-        <v>233.0291907053292</v>
+        <v>233.0291907053291</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>120.2864475955528</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -29363,16 +29363,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.0864275203899</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.7524995282011</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>16.62591891490271</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29408,7 +29408,7 @@
         <v>151.1611832409349</v>
       </c>
       <c r="U27" t="n">
-        <v>151.1611832409349</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29439,10 +29439,10 @@
         <v>151.1611832409349</v>
       </c>
       <c r="E28" t="n">
-        <v>146.7726037100166</v>
+        <v>151.1611832409349</v>
       </c>
       <c r="F28" t="n">
-        <v>151.1611832409349</v>
+        <v>148.9650469299212</v>
       </c>
       <c r="G28" t="n">
         <v>151.1611832409349</v>
@@ -29451,7 +29451,7 @@
         <v>151.1611832409349</v>
       </c>
       <c r="I28" t="n">
-        <v>151.1611832409349</v>
+        <v>148.9687400210304</v>
       </c>
       <c r="J28" t="n">
         <v>151.1611832409349</v>
@@ -29466,13 +29466,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>151.1611832409349</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>151.1611832409349</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>151.1611832409349</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>80.65491692150739</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29609,7 +29609,7 @@
         <v>109.7524995282011</v>
       </c>
       <c r="I30" t="n">
-        <v>80.54508155254206</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,25 +29636,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1098353689653351</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>151.1611832409349</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>151.1611832409349</v>
       </c>
       <c r="U30" t="n">
-        <v>151.1611832409349</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>151.1611832409349</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>151.1611832409349</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>151.1611832409349</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29691,25 +29691,25 @@
         <v>148.9687400210304</v>
       </c>
       <c r="J31" t="n">
+        <v>78.12083296862733</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>151.1611832409349</v>
       </c>
-      <c r="K31" t="n">
+      <c r="O31" t="n">
+        <v>83.85727999638547</v>
+      </c>
+      <c r="P31" t="n">
         <v>151.1611832409349</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>151.1611832409349</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>10.8169297240783</v>
       </c>
       <c r="Q31" t="n">
         <v>151.1611832409349</v>
@@ -29770,7 +29770,7 @@
         <v>157.4431996385866</v>
       </c>
       <c r="J32" t="n">
-        <v>4.761550412160219</v>
+        <v>4.761550412160844</v>
       </c>
       <c r="K32" t="n">
         <v>157.4431996385866</v>
@@ -29828,7 +29828,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>33.26930409525826</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29837,13 +29837,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0864275203899</v>
       </c>
       <c r="H33" t="n">
-        <v>109.7524995282011</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>80.54508155254206</v>
@@ -29873,22 +29873,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>84.1957245747009</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>157.4431996385866</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>157.4431996385866</v>
       </c>
       <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
         <v>157.4431996385866</v>
-      </c>
-      <c r="W33" t="n">
-        <v>132.4249694169448</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29913,10 +29913,10 @@
         <v>157.4431996385866</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>157.4431996385866</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>157.4431996385866</v>
       </c>
       <c r="G34" t="n">
         <v>157.4431996385866</v>
@@ -29925,31 +29925,31 @@
         <v>157.4431996385866</v>
       </c>
       <c r="I34" t="n">
-        <v>148.9687400210304</v>
+        <v>157.4431996385866</v>
       </c>
       <c r="J34" t="n">
-        <v>78.12083296862733</v>
+        <v>157.4431996385866</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>25.88368760840589</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>157.4431996385866</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>157.4431996385866</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>136.7119025035936</v>
       </c>
       <c r="R34" t="n">
         <v>157.4431996385866</v>
@@ -30007,34 +30007,34 @@
         <v>204.0225846370551</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>143.7508907309643</v>
+      </c>
+      <c r="R35" t="n">
         <v>204.0225846370551</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
+      <c r="S35" t="n">
         <v>204.0225846370551</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.7027772882976</v>
-      </c>
-      <c r="S35" t="n">
-        <v>198.0706980797215</v>
       </c>
       <c r="T35" t="n">
         <v>204.0225846370551</v>
@@ -30074,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.0864275203899</v>
@@ -30083,7 +30083,7 @@
         <v>109.7524995282011</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.54508155254206</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,16 +30113,16 @@
         <v>84.1957245747009</v>
       </c>
       <c r="S36" t="n">
-        <v>166.9078437470573</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>152.040441649715</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>179.4498316005588</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.07091229735245</v>
+        <v>68.1138992912152</v>
       </c>
       <c r="R37" t="n">
-        <v>167.6021396098771</v>
+        <v>170.5591526160147</v>
       </c>
       <c r="S37" t="n">
         <v>204.0225846370551</v>
@@ -30244,7 +30244,7 @@
         <v>204.0225846370551</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>143.7508907309643</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30253,7 +30253,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>143.7508907309635</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30347,19 +30347,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>84.1957245747009</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>166.9078437470573</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.1284770204695</v>
       </c>
       <c r="U39" t="n">
-        <v>130.5764703932322</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>145.0621607073323</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.07091229735239</v>
+        <v>68.1138992912152</v>
       </c>
       <c r="R40" t="n">
-        <v>167.6021396098771</v>
+        <v>170.5591526160147</v>
       </c>
       <c r="S40" t="n">
         <v>204.0225846370551</v>
@@ -30457,34 +30457,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="C41" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="D41" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="E41" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="F41" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="G41" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="H41" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="I41" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="J41" t="n">
-        <v>204.022584637055</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>143.7508907309643</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30499,34 +30499,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>143.7508907309647</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="R41" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="S41" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="T41" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="U41" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="V41" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="W41" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="X41" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="Y41" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
     </row>
     <row r="42">
@@ -30551,13 +30551,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0864275203899</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.7524995282011</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>31.04501990596425</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,16 +30584,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>84.1957245747009</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.9078437470573</v>
       </c>
       <c r="T42" t="n">
         <v>199.1284770204695</v>
       </c>
       <c r="U42" t="n">
-        <v>145.0621607073326</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>204.022584637055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,13 +30615,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>182.7889931880752</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>151.5724860243498</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -30666,25 +30666,25 @@
         <v>167.6021396098771</v>
       </c>
       <c r="S43" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="T43" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="U43" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="V43" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="W43" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="X43" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="Y43" t="n">
-        <v>204.022584637055</v>
+        <v>204.0225846370551</v>
       </c>
     </row>
     <row r="44">
@@ -30718,11 +30718,11 @@
         <v>204.0225846370551</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>204.0225846370551</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.7508907309641</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>143.7508907309643</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>204.0225846370551</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -30785,16 +30785,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0864275203899</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.7524995282011</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.54508155254206</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,7 +30824,7 @@
         <v>84.1957245747009</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>34.38061920717493</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30836,13 +30836,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>136.2780719147695</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>204.0225846370551</v>
       </c>
       <c r="Y45" t="n">
-        <v>204.0225846370551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30867,13 +30867,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>170.7324570442561</v>
+        <v>167.7754440381186</v>
       </c>
       <c r="H46" t="n">
         <v>160.3108675684157</v>
       </c>
       <c r="I46" t="n">
-        <v>148.9687400210304</v>
+        <v>151.9257530271678</v>
       </c>
       <c r="J46" t="n">
         <v>78.12083296862733</v>
@@ -34699,16 +34699,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M2" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>15.30273751513505</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N3" t="n">
         <v>14.68444509028111</v>
       </c>
       <c r="O3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="L5" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="M5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>15.30273751513505</v>
@@ -35176,19 +35176,19 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="M9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="M9" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>39.58387696184059</v>
@@ -35419,19 +35419,19 @@
         <v>303.5387244913374</v>
       </c>
       <c r="N11" t="n">
-        <v>364.9174420883239</v>
+        <v>293.6705028927523</v>
       </c>
       <c r="O11" t="n">
         <v>231.6606497497727</v>
       </c>
       <c r="P11" t="n">
-        <v>159.6620726730431</v>
+        <v>237.3340520358466</v>
       </c>
       <c r="Q11" t="n">
         <v>41.89778974980532</v>
       </c>
       <c r="R11" t="n">
-        <v>6.425040167230549</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>73.72914360085537</v>
       </c>
       <c r="L12" t="n">
         <v>288.1071180141212</v>
@@ -35498,13 +35498,13 @@
         <v>388.7116818707707</v>
       </c>
       <c r="N12" t="n">
-        <v>234.0851431916632</v>
+        <v>393.9372067336564</v>
       </c>
       <c r="O12" t="n">
         <v>312.4342408590322</v>
       </c>
       <c r="P12" t="n">
-        <v>233.5812071428469</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>102.9127810386684</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.99017833134129</v>
+        <v>47.9901783313413</v>
       </c>
       <c r="K13" t="n">
         <v>128.8828048735998</v>
@@ -35574,19 +35574,19 @@
         <v>185.7452604588491</v>
       </c>
       <c r="M13" t="n">
-        <v>199.4810294311222</v>
+        <v>199.4810294311223</v>
       </c>
       <c r="N13" t="n">
         <v>203.2259659272426</v>
       </c>
       <c r="O13" t="n">
-        <v>181.1610770380806</v>
+        <v>181.1610770380807</v>
       </c>
       <c r="P13" t="n">
         <v>149.4575878539963</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.99711200875342</v>
+        <v>57.99711200875343</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0794038684667</v>
+        <v>28.83246467289509</v>
       </c>
       <c r="K14" t="n">
         <v>165.1768392342691</v>
@@ -35665,10 +35665,10 @@
         <v>159.6620726730431</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.89778974980532</v>
+        <v>119.5697691126089</v>
       </c>
       <c r="R14" t="n">
-        <v>6.425040167230492</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>23.54274198954135</v>
+        <v>8.50378721651329</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>168.1381374230104</v>
       </c>
       <c r="L15" t="n">
         <v>288.1071180141212</v>
       </c>
       <c r="M15" t="n">
-        <v>205.3168763392364</v>
+        <v>388.7116818707707</v>
       </c>
       <c r="N15" t="n">
-        <v>393.937206733656</v>
+        <v>393.9372067336564</v>
       </c>
       <c r="O15" t="n">
         <v>312.4342408590322</v>
       </c>
       <c r="P15" t="n">
-        <v>233.5812071428469</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>102.9127810386684</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.99017833134123</v>
+        <v>47.99017833134128</v>
       </c>
       <c r="K16" t="n">
         <v>128.8828048735998</v>
       </c>
       <c r="L16" t="n">
-        <v>185.7452604588507</v>
+        <v>185.7452604588491</v>
       </c>
       <c r="M16" t="n">
         <v>199.4810294311222</v>
@@ -35820,10 +35820,10 @@
         <v>181.1610770380806</v>
       </c>
       <c r="P16" t="n">
-        <v>149.4575878539962</v>
+        <v>149.4575878539971</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.99711200875336</v>
+        <v>57.9971120087534</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.07773975281739</v>
+        <v>30.67676111899092</v>
       </c>
       <c r="J17" t="n">
         <v>28.83246467289509</v>
@@ -35908,10 +35908,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.95849262560775</v>
+        <v>34.9584926256076</v>
       </c>
       <c r="T17" t="n">
-        <v>1.635746984376708</v>
+        <v>12.03672561820522</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>23.54274198954135</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35972,10 +35972,10 @@
         <v>388.7116818707707</v>
       </c>
       <c r="N18" t="n">
-        <v>393.937206733656</v>
+        <v>313.4551822407918</v>
       </c>
       <c r="O18" t="n">
-        <v>255.4949583557077</v>
+        <v>312.4342408590322</v>
       </c>
       <c r="P18" t="n">
         <v>233.5812071428469</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.07773975281725</v>
       </c>
       <c r="J20" t="n">
         <v>28.83246467289509</v>
@@ -36142,13 +36142,13 @@
         <v>41.89778974980532</v>
       </c>
       <c r="R20" t="n">
-        <v>65.63525374459653</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>24.55751399178107</v>
       </c>
       <c r="T20" t="n">
-        <v>12.03672561820536</v>
+        <v>12.03672561820522</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>168.1381374230104</v>
       </c>
       <c r="L21" t="n">
         <v>288.1071180141212</v>
@@ -36209,13 +36209,13 @@
         <v>388.7116818707707</v>
       </c>
       <c r="N21" t="n">
-        <v>393.937206733656</v>
+        <v>393.9372067336563</v>
       </c>
       <c r="O21" t="n">
         <v>312.4342408590322</v>
       </c>
       <c r="P21" t="n">
-        <v>176.6419246395225</v>
+        <v>8.503787216513174</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.07773975281739</v>
+        <v>30.67676111899047</v>
       </c>
       <c r="J23" t="n">
         <v>28.83246467289509</v>
@@ -36379,13 +36379,13 @@
         <v>41.89778974980532</v>
       </c>
       <c r="R23" t="n">
-        <v>24.557513991779</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>34.9584926256076</v>
       </c>
       <c r="T23" t="n">
-        <v>12.03672561820536</v>
+        <v>12.03672561820522</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>231.1678355107967</v>
+        <v>288.1071180141212</v>
       </c>
       <c r="M24" t="n">
         <v>388.7116818707707</v>
       </c>
       <c r="N24" t="n">
-        <v>393.937206733656</v>
+        <v>393.9372067336563</v>
       </c>
       <c r="O24" t="n">
         <v>312.4342408590322</v>
       </c>
       <c r="P24" t="n">
-        <v>233.5812071428469</v>
+        <v>176.6419246395236</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>316.338022475204</v>
       </c>
       <c r="L26" t="n">
-        <v>408.8823325313603</v>
+        <v>408.8823325313604</v>
       </c>
       <c r="M26" t="n">
         <v>454.6999077322723</v>
@@ -36735,10 +36735,10 @@
         <v>2.545710222722562</v>
       </c>
       <c r="E28" t="n">
-        <v>0.338641063447438</v>
+        <v>4.727220594365747</v>
       </c>
       <c r="F28" t="n">
-        <v>5.740135218003672</v>
+        <v>3.543998906989941</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,7 +36747,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.192443219904528</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>73.04035027230759</v>
@@ -36762,13 +36762,13 @@
         <v>73.37001813115363</v>
       </c>
       <c r="N28" t="n">
-        <v>77.11495462727399</v>
+        <v>228.2761378682089</v>
       </c>
       <c r="O28" t="n">
         <v>55.05006573811202</v>
       </c>
       <c r="P28" t="n">
-        <v>174.5077597949626</v>
+        <v>23.34657655402766</v>
       </c>
       <c r="Q28" t="n">
         <v>83.04728394971971</v>
@@ -36850,10 +36850,10 @@
         <v>310.8232559139781</v>
       </c>
       <c r="Q29" t="n">
-        <v>193.0589729907402</v>
+        <v>193.0589729907403</v>
       </c>
       <c r="R29" t="n">
-        <v>31.47521210819684</v>
+        <v>31.47521210819687</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.04035027230759</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>153.9329768145661</v>
+        <v>2.771793573631189</v>
       </c>
       <c r="L31" t="n">
         <v>59.63424915888052</v>
       </c>
       <c r="M31" t="n">
-        <v>224.5312013720886</v>
+        <v>73.37001813115363</v>
       </c>
       <c r="N31" t="n">
-        <v>77.11495462727399</v>
+        <v>228.2761378682089</v>
       </c>
       <c r="O31" t="n">
-        <v>55.05006573811202</v>
+        <v>138.9073457344975</v>
       </c>
       <c r="P31" t="n">
-        <v>34.16350627810596</v>
+        <v>174.5077597949626</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.04728394971971</v>
+        <v>83.04728394971974</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>33.5940150850553</v>
+        <v>33.59401508505593</v>
       </c>
       <c r="K32" t="n">
         <v>322.6200388728557</v>
@@ -37075,10 +37075,10 @@
         <v>415.164348929012</v>
       </c>
       <c r="M32" t="n">
-        <v>460.981924129924</v>
+        <v>460.9819241299239</v>
       </c>
       <c r="N32" t="n">
-        <v>451.1137025313389</v>
+        <v>451.1137025313388</v>
       </c>
       <c r="O32" t="n">
         <v>389.1038493883593</v>
@@ -37090,7 +37090,7 @@
         <v>199.3409893883919</v>
       </c>
       <c r="R32" t="n">
-        <v>37.75722850584853</v>
+        <v>37.7572285058485</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>8.82772662037425</v>
+        <v>8.827726620374222</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>11.00923699201741</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>12.02215161565533</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>8.474459617556189</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>79.32236666995925</v>
       </c>
       <c r="K34" t="n">
-        <v>160.2149932122178</v>
+        <v>2.771793573631189</v>
       </c>
       <c r="L34" t="n">
-        <v>59.63424915888052</v>
+        <v>85.51793676728641</v>
       </c>
       <c r="M34" t="n">
         <v>73.37001813115363</v>
       </c>
       <c r="N34" t="n">
-        <v>77.11495462727399</v>
+        <v>234.5581542658606</v>
       </c>
       <c r="O34" t="n">
         <v>55.05006573811202</v>
       </c>
       <c r="P34" t="n">
-        <v>180.7897761926143</v>
+        <v>23.34657655402766</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.59800321237844</v>
+        <v>89.32930034737137</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>12.07113368454329</v>
+        <v>12.07113368454324</v>
       </c>
       <c r="J35" t="n">
-        <v>28.83246467289509</v>
+        <v>232.8550493099502</v>
       </c>
       <c r="K35" t="n">
-        <v>369.1994238713243</v>
+        <v>165.1768392342691</v>
       </c>
       <c r="L35" t="n">
         <v>257.7211492904254</v>
@@ -37321,16 +37321,16 @@
         <v>231.6606497497727</v>
       </c>
       <c r="P35" t="n">
-        <v>363.6846573100983</v>
+        <v>159.6620726730431</v>
       </c>
       <c r="Q35" t="n">
-        <v>41.89778974980532</v>
+        <v>185.6486804807696</v>
       </c>
       <c r="R35" t="n">
-        <v>30.01680615555948</v>
+        <v>84.336613504317</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>5.951886557333596</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37482,10 +37482,10 @@
         <v>23.34657655402766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.957013006137245</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>2.957013006137589</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>12.07113368454329</v>
+        <v>12.07113368454324</v>
       </c>
       <c r="J38" t="n">
-        <v>28.83246467289509</v>
+        <v>172.5833554038594</v>
       </c>
       <c r="K38" t="n">
         <v>165.1768392342691</v>
@@ -37549,7 +37549,7 @@
         <v>257.7211492904254</v>
       </c>
       <c r="M38" t="n">
-        <v>447.2896152223009</v>
+        <v>303.5387244913374</v>
       </c>
       <c r="N38" t="n">
         <v>293.6705028927523</v>
@@ -37561,13 +37561,13 @@
         <v>159.6620726730431</v>
       </c>
       <c r="Q38" t="n">
-        <v>245.9203743868605</v>
+        <v>245.9203743868604</v>
       </c>
       <c r="R38" t="n">
-        <v>84.33661350431706</v>
+        <v>84.336613504317</v>
       </c>
       <c r="S38" t="n">
-        <v>5.951886557333653</v>
+        <v>5.951886557333596</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>233.5812071428469</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.9127810386677</v>
+        <v>102.9127810386684</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,10 +37719,10 @@
         <v>23.34657655402766</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.957013006137188</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>2.957013006137589</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>12.07113368454321</v>
+        <v>12.07113368454327</v>
       </c>
       <c r="J41" t="n">
-        <v>232.8550493099501</v>
+        <v>28.83246467289509</v>
       </c>
       <c r="K41" t="n">
-        <v>308.9277299652334</v>
+        <v>165.1768392342691</v>
       </c>
       <c r="L41" t="n">
         <v>257.7211492904254</v>
@@ -37795,16 +37795,16 @@
         <v>231.6606497497727</v>
       </c>
       <c r="P41" t="n">
-        <v>159.6620726730431</v>
+        <v>303.4129634040078</v>
       </c>
       <c r="Q41" t="n">
-        <v>41.89778974980532</v>
+        <v>245.9203743868604</v>
       </c>
       <c r="R41" t="n">
-        <v>84.33661350431697</v>
+        <v>84.33661350431703</v>
       </c>
       <c r="S41" t="n">
-        <v>5.951886557333568</v>
+        <v>5.951886557333625</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37911,13 +37911,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.957013006137862</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>2.957013006137388</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>12.07113368454327</v>
       </c>
       <c r="J44" t="n">
-        <v>232.8550493099502</v>
+        <v>28.83246467289509</v>
       </c>
       <c r="K44" t="n">
-        <v>165.1768392342691</v>
+        <v>369.1994238713242</v>
       </c>
       <c r="L44" t="n">
         <v>257.7211492904254</v>
@@ -38026,7 +38026,7 @@
         <v>303.5387244913374</v>
       </c>
       <c r="N44" t="n">
-        <v>293.6705028927523</v>
+        <v>437.4213936237164</v>
       </c>
       <c r="O44" t="n">
         <v>231.6606497497727</v>
@@ -38035,7 +38035,7 @@
         <v>159.6620726730431</v>
       </c>
       <c r="Q44" t="n">
-        <v>185.6486804807696</v>
+        <v>41.89778974980532</v>
       </c>
       <c r="R44" t="n">
         <v>84.33661350431703</v>
@@ -38163,13 +38163,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>2.957013006137395</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
